--- a/raw-data-prep/raw_data/digits_RP.xlsx
+++ b/raw-data-prep/raw_data/digits_RP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Subno</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Left index finger distorted</t>
+  </si>
+  <si>
+    <t>919,1</t>
   </si>
   <si>
     <t>thumbs blocking fingers a little bit</t>
@@ -396,11 +399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B412" sqref="B412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,8 +2070,8 @@
       <c r="G57">
         <v>87.19</v>
       </c>
-      <c r="H57">
-        <v>919.1</v>
+      <c r="H57" t="s">
+        <v>11</v>
       </c>
       <c r="I57">
         <v>82.87</v>
@@ -4336,7 +4339,7 @@
         <v>82.03</v>
       </c>
       <c r="J135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4542,7 +4545,7 @@
         <v>87.87</v>
       </c>
       <c r="J142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5038,7 +5041,7 @@
         <v>78.25</v>
       </c>
       <c r="J159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5273,7 +5276,7 @@
         <v>84.6</v>
       </c>
       <c r="J167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,6 +5422,6937 @@
       </c>
       <c r="I172">
         <v>89.05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>913.5</v>
+      </c>
+      <c r="C173">
+        <v>83.72</v>
+      </c>
+      <c r="D173">
+        <v>850</v>
+      </c>
+      <c r="E173">
+        <v>89.66</v>
+      </c>
+      <c r="F173">
+        <v>844.4</v>
+      </c>
+      <c r="G173">
+        <v>88.24</v>
+      </c>
+      <c r="H173">
+        <v>900.6</v>
+      </c>
+      <c r="I173">
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>837.5</v>
+      </c>
+      <c r="C174">
+        <v>88.08</v>
+      </c>
+      <c r="D174">
+        <v>816.4</v>
+      </c>
+      <c r="E174">
+        <v>78.48</v>
+      </c>
+      <c r="F174">
+        <v>824.3</v>
+      </c>
+      <c r="G174">
+        <v>80.5</v>
+      </c>
+      <c r="H174">
+        <v>850.8</v>
+      </c>
+      <c r="I174">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>903.7</v>
+      </c>
+      <c r="C175">
+        <v>82.5</v>
+      </c>
+      <c r="D175">
+        <v>870.6</v>
+      </c>
+      <c r="E175">
+        <v>87.96</v>
+      </c>
+      <c r="F175">
+        <v>847.1</v>
+      </c>
+      <c r="G175">
+        <v>89.26</v>
+      </c>
+      <c r="H175">
+        <v>898.9</v>
+      </c>
+      <c r="I175">
+        <v>82.91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>939.4</v>
+      </c>
+      <c r="C176">
+        <v>86.89</v>
+      </c>
+      <c r="D176">
+        <v>899.6</v>
+      </c>
+      <c r="E176">
+        <v>85.6</v>
+      </c>
+      <c r="F176">
+        <v>860.6</v>
+      </c>
+      <c r="G176">
+        <v>86.47</v>
+      </c>
+      <c r="H176">
+        <v>902.1</v>
+      </c>
+      <c r="I176">
+        <v>89.17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>762.1</v>
+      </c>
+      <c r="C177">
+        <v>85.71</v>
+      </c>
+      <c r="D177">
+        <v>767.3</v>
+      </c>
+      <c r="E177">
+        <v>81.08</v>
+      </c>
+      <c r="F177">
+        <v>742.8</v>
+      </c>
+      <c r="G177">
+        <v>80.23</v>
+      </c>
+      <c r="H177">
+        <v>776.4</v>
+      </c>
+      <c r="I177">
+        <v>83.86</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>925.2</v>
+      </c>
+      <c r="C178">
+        <v>86.03</v>
+      </c>
+      <c r="D178">
+        <v>898.6</v>
+      </c>
+      <c r="E178">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="F178">
+        <v>857</v>
+      </c>
+      <c r="G178">
+        <v>78.56</v>
+      </c>
+      <c r="H178">
+        <v>849.1</v>
+      </c>
+      <c r="I178">
+        <v>89.26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>999.2</v>
+      </c>
+      <c r="C179">
+        <v>85.46</v>
+      </c>
+      <c r="D179">
+        <v>924.3</v>
+      </c>
+      <c r="E179">
+        <v>81.849999999999994</v>
+      </c>
+      <c r="F179">
+        <v>933.5</v>
+      </c>
+      <c r="G179">
+        <v>83.23</v>
+      </c>
+      <c r="H179">
+        <v>984.8</v>
+      </c>
+      <c r="I179">
+        <v>87.67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>876.5</v>
+      </c>
+      <c r="C180">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="D180">
+        <v>813.4</v>
+      </c>
+      <c r="E180">
+        <v>83.36</v>
+      </c>
+      <c r="F180">
+        <v>797</v>
+      </c>
+      <c r="G180">
+        <v>89.78</v>
+      </c>
+      <c r="H180">
+        <v>873</v>
+      </c>
+      <c r="I180">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>917.7</v>
+      </c>
+      <c r="C181">
+        <v>80.47</v>
+      </c>
+      <c r="D181">
+        <v>925</v>
+      </c>
+      <c r="E181">
+        <v>89.57</v>
+      </c>
+      <c r="F181">
+        <v>921.3</v>
+      </c>
+      <c r="G181">
+        <v>82.77</v>
+      </c>
+      <c r="H181">
+        <v>878.2</v>
+      </c>
+      <c r="I181">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>972.8</v>
+      </c>
+      <c r="C182">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="D182">
+        <v>957.1</v>
+      </c>
+      <c r="E182">
+        <v>89.4</v>
+      </c>
+      <c r="F182">
+        <v>944.3</v>
+      </c>
+      <c r="G182">
+        <v>85.99</v>
+      </c>
+      <c r="H182">
+        <v>949.2</v>
+      </c>
+      <c r="I182">
+        <v>86.07</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>872</v>
+      </c>
+      <c r="C183">
+        <v>79.36</v>
+      </c>
+      <c r="D183">
+        <v>830</v>
+      </c>
+      <c r="E183">
+        <v>89.65</v>
+      </c>
+      <c r="F183">
+        <v>834.9</v>
+      </c>
+      <c r="G183">
+        <v>84.43</v>
+      </c>
+      <c r="H183">
+        <v>887.2</v>
+      </c>
+      <c r="I183">
+        <v>85.93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>893.3</v>
+      </c>
+      <c r="C184">
+        <v>88.52</v>
+      </c>
+      <c r="D184">
+        <v>885.1</v>
+      </c>
+      <c r="E184">
+        <v>83.84</v>
+      </c>
+      <c r="F184">
+        <v>879.59</v>
+      </c>
+      <c r="G184">
+        <v>78.59</v>
+      </c>
+      <c r="H184">
+        <v>896.6</v>
+      </c>
+      <c r="I184">
+        <v>84.88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>942.9</v>
+      </c>
+      <c r="C185">
+        <v>81.28</v>
+      </c>
+      <c r="D185">
+        <v>899.4</v>
+      </c>
+      <c r="E185">
+        <v>81.69</v>
+      </c>
+      <c r="F185">
+        <v>892.4</v>
+      </c>
+      <c r="G185">
+        <v>78.040000000000006</v>
+      </c>
+      <c r="H185">
+        <v>935.6</v>
+      </c>
+      <c r="I185">
+        <v>86.69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>987.3</v>
+      </c>
+      <c r="C186">
+        <v>84.07</v>
+      </c>
+      <c r="D186">
+        <v>905.1</v>
+      </c>
+      <c r="E186">
+        <v>82.32</v>
+      </c>
+      <c r="F186">
+        <v>922</v>
+      </c>
+      <c r="G186">
+        <v>77.47</v>
+      </c>
+      <c r="H186">
+        <v>977.1</v>
+      </c>
+      <c r="I186">
+        <v>85.42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>923</v>
+      </c>
+      <c r="C187">
+        <v>87.33</v>
+      </c>
+      <c r="D187">
+        <v>875.5</v>
+      </c>
+      <c r="E187">
+        <v>85.52</v>
+      </c>
+      <c r="F187">
+        <v>891.6</v>
+      </c>
+      <c r="G187">
+        <v>79.27</v>
+      </c>
+      <c r="H187">
+        <v>925.1</v>
+      </c>
+      <c r="I187">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>920.4</v>
+      </c>
+      <c r="C188">
+        <v>78.209999999999994</v>
+      </c>
+      <c r="D188">
+        <v>943.6</v>
+      </c>
+      <c r="E188">
+        <v>83.24</v>
+      </c>
+      <c r="F188">
+        <v>923.2</v>
+      </c>
+      <c r="G188">
+        <v>88.7</v>
+      </c>
+      <c r="H188">
+        <v>901.1</v>
+      </c>
+      <c r="I188">
+        <v>83.31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>844.7</v>
+      </c>
+      <c r="C189">
+        <v>82.24</v>
+      </c>
+      <c r="D189">
+        <v>842</v>
+      </c>
+      <c r="E189">
+        <v>70.36</v>
+      </c>
+      <c r="F189">
+        <v>823.5</v>
+      </c>
+      <c r="G189">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="H189">
+        <v>869.1</v>
+      </c>
+      <c r="I189">
+        <v>89.27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>953.3</v>
+      </c>
+      <c r="C190">
+        <v>88.62</v>
+      </c>
+      <c r="D190">
+        <v>936.8</v>
+      </c>
+      <c r="E190">
+        <v>86.45</v>
+      </c>
+      <c r="F190">
+        <v>949.6</v>
+      </c>
+      <c r="G190">
+        <v>87.89</v>
+      </c>
+      <c r="H190">
+        <v>919.7</v>
+      </c>
+      <c r="I190">
+        <v>84.88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>850.5</v>
+      </c>
+      <c r="C191">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="D191">
+        <v>868.6</v>
+      </c>
+      <c r="E191">
+        <v>82.39</v>
+      </c>
+      <c r="F191">
+        <v>846.4</v>
+      </c>
+      <c r="G191">
+        <v>84.17</v>
+      </c>
+      <c r="H191">
+        <v>827.9</v>
+      </c>
+      <c r="I191">
+        <v>82.57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>880</v>
+      </c>
+      <c r="C192">
+        <v>89.74</v>
+      </c>
+      <c r="D192">
+        <v>843.4</v>
+      </c>
+      <c r="E192">
+        <v>85.65</v>
+      </c>
+      <c r="F192">
+        <v>840.9</v>
+      </c>
+      <c r="G192">
+        <v>81.66</v>
+      </c>
+      <c r="H192">
+        <v>888.2</v>
+      </c>
+      <c r="I192">
+        <v>86.97</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>799.3</v>
+      </c>
+      <c r="C193">
+        <v>84.04</v>
+      </c>
+      <c r="D193">
+        <v>816.5</v>
+      </c>
+      <c r="E193">
+        <v>86.49</v>
+      </c>
+      <c r="F193">
+        <v>802.4</v>
+      </c>
+      <c r="G193">
+        <v>88.29</v>
+      </c>
+      <c r="H193">
+        <v>811.2</v>
+      </c>
+      <c r="I193">
+        <v>84.91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>908.9</v>
+      </c>
+      <c r="C194">
+        <v>84.7</v>
+      </c>
+      <c r="D194">
+        <v>863.1</v>
+      </c>
+      <c r="E194">
+        <v>89.2</v>
+      </c>
+      <c r="F194">
+        <v>885.5</v>
+      </c>
+      <c r="G194">
+        <v>85.73</v>
+      </c>
+      <c r="H194">
+        <v>913</v>
+      </c>
+      <c r="I194">
+        <v>79.59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>861.1</v>
+      </c>
+      <c r="C195">
+        <v>80.78</v>
+      </c>
+      <c r="D195">
+        <v>866.4</v>
+      </c>
+      <c r="E195">
+        <v>85.76</v>
+      </c>
+      <c r="F195">
+        <v>851.2</v>
+      </c>
+      <c r="G195">
+        <v>86.97</v>
+      </c>
+      <c r="H195">
+        <v>839.3</v>
+      </c>
+      <c r="I195">
+        <v>83.57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>888.2</v>
+      </c>
+      <c r="C196">
+        <v>84.44</v>
+      </c>
+      <c r="D196">
+        <v>806.7</v>
+      </c>
+      <c r="E196">
+        <v>87.66</v>
+      </c>
+      <c r="F196">
+        <v>815</v>
+      </c>
+      <c r="G196">
+        <v>89.51</v>
+      </c>
+      <c r="H196">
+        <v>886.2</v>
+      </c>
+      <c r="I196">
+        <v>82.67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>989.5</v>
+      </c>
+      <c r="C197">
+        <v>85.19</v>
+      </c>
+      <c r="D197">
+        <v>894.4</v>
+      </c>
+      <c r="E197">
+        <v>88.21</v>
+      </c>
+      <c r="F197">
+        <v>886.7</v>
+      </c>
+      <c r="G197">
+        <v>87.8</v>
+      </c>
+      <c r="H197">
+        <v>985.6</v>
+      </c>
+      <c r="I197">
+        <v>82.89</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>885.2</v>
+      </c>
+      <c r="C198">
+        <v>82.67</v>
+      </c>
+      <c r="D198">
+        <v>882.1</v>
+      </c>
+      <c r="E198">
+        <v>89.22</v>
+      </c>
+      <c r="F198">
+        <v>885.9</v>
+      </c>
+      <c r="G198">
+        <v>87.48</v>
+      </c>
+      <c r="H198">
+        <v>873.5</v>
+      </c>
+      <c r="I198">
+        <v>78.84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>986.5</v>
+      </c>
+      <c r="C199">
+        <v>89.6</v>
+      </c>
+      <c r="D199">
+        <v>931.3</v>
+      </c>
+      <c r="E199">
+        <v>88.58</v>
+      </c>
+      <c r="F199">
+        <v>919.9</v>
+      </c>
+      <c r="G199">
+        <v>87.51</v>
+      </c>
+      <c r="H199">
+        <v>982.9</v>
+      </c>
+      <c r="I199">
+        <v>85.62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>885</v>
+      </c>
+      <c r="C200">
+        <v>89.74</v>
+      </c>
+      <c r="D200">
+        <v>845.1</v>
+      </c>
+      <c r="E200">
+        <v>84.36</v>
+      </c>
+      <c r="F200">
+        <v>833.1</v>
+      </c>
+      <c r="G200">
+        <v>89.11</v>
+      </c>
+      <c r="H200">
+        <v>867.1</v>
+      </c>
+      <c r="I200">
+        <v>89.14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>914</v>
+      </c>
+      <c r="C201">
+        <v>89.75</v>
+      </c>
+      <c r="D201">
+        <v>892.3</v>
+      </c>
+      <c r="E201">
+        <v>86.92</v>
+      </c>
+      <c r="F201">
+        <v>876.2</v>
+      </c>
+      <c r="G201">
+        <v>88.89</v>
+      </c>
+      <c r="H201">
+        <v>907.4</v>
+      </c>
+      <c r="I201">
+        <v>83.16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>857.4</v>
+      </c>
+      <c r="C202">
+        <v>88.33</v>
+      </c>
+      <c r="D202">
+        <v>839.3</v>
+      </c>
+      <c r="E202">
+        <v>82.95</v>
+      </c>
+      <c r="F202">
+        <v>833.1</v>
+      </c>
+      <c r="G202">
+        <v>89.31</v>
+      </c>
+      <c r="H202">
+        <v>852.7</v>
+      </c>
+      <c r="I202">
+        <v>87.71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>888.3</v>
+      </c>
+      <c r="C203">
+        <v>83.73</v>
+      </c>
+      <c r="D203">
+        <v>851.6</v>
+      </c>
+      <c r="E203">
+        <v>87.85</v>
+      </c>
+      <c r="F203">
+        <v>869.3</v>
+      </c>
+      <c r="G203">
+        <v>88.55</v>
+      </c>
+      <c r="H203">
+        <v>891.3</v>
+      </c>
+      <c r="I203">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>849.1</v>
+      </c>
+      <c r="C204">
+        <v>89.19</v>
+      </c>
+      <c r="D204">
+        <v>801.6</v>
+      </c>
+      <c r="E204">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="F204">
+        <v>792</v>
+      </c>
+      <c r="G204">
+        <v>81.87</v>
+      </c>
+      <c r="H204">
+        <v>838.1</v>
+      </c>
+      <c r="I204">
+        <v>89.04</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>858.9</v>
+      </c>
+      <c r="C205">
+        <v>84.52</v>
+      </c>
+      <c r="D205">
+        <v>767.9</v>
+      </c>
+      <c r="E205">
+        <v>82.29</v>
+      </c>
+      <c r="F205">
+        <v>806.6</v>
+      </c>
+      <c r="G205">
+        <v>87.73</v>
+      </c>
+      <c r="H205">
+        <v>863.6</v>
+      </c>
+      <c r="I205">
+        <v>86.55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1104.7</v>
+      </c>
+      <c r="C206">
+        <v>88.03</v>
+      </c>
+      <c r="D206">
+        <v>945</v>
+      </c>
+      <c r="E206">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="F206">
+        <v>964.1</v>
+      </c>
+      <c r="G206">
+        <v>78.88</v>
+      </c>
+      <c r="H206">
+        <v>1059.4000000000001</v>
+      </c>
+      <c r="I206">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>952.7</v>
+      </c>
+      <c r="C207">
+        <v>87.83</v>
+      </c>
+      <c r="D207">
+        <v>952.6</v>
+      </c>
+      <c r="E207">
+        <v>88.01</v>
+      </c>
+      <c r="F207">
+        <v>988</v>
+      </c>
+      <c r="G207">
+        <v>89.48</v>
+      </c>
+      <c r="H207">
+        <v>981.1</v>
+      </c>
+      <c r="I207">
+        <v>84.74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>909</v>
+      </c>
+      <c r="C208">
+        <v>84.63</v>
+      </c>
+      <c r="D208">
+        <v>897</v>
+      </c>
+      <c r="E208">
+        <v>89.94</v>
+      </c>
+      <c r="F208">
+        <v>898.1</v>
+      </c>
+      <c r="G208">
+        <v>89.36</v>
+      </c>
+      <c r="H208">
+        <v>921.4</v>
+      </c>
+      <c r="I208">
+        <v>86.83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>907.7</v>
+      </c>
+      <c r="C209">
+        <v>87.79</v>
+      </c>
+      <c r="D209">
+        <v>811.4</v>
+      </c>
+      <c r="E209">
+        <v>88.16</v>
+      </c>
+      <c r="F209">
+        <v>816.5</v>
+      </c>
+      <c r="G209">
+        <v>85.5</v>
+      </c>
+      <c r="H209">
+        <v>888.2</v>
+      </c>
+      <c r="I209">
+        <v>87.03</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>930.9</v>
+      </c>
+      <c r="C210">
+        <v>84.76</v>
+      </c>
+      <c r="D210">
+        <v>881</v>
+      </c>
+      <c r="E210">
+        <v>89.48</v>
+      </c>
+      <c r="F210">
+        <v>850</v>
+      </c>
+      <c r="G210">
+        <v>89.87</v>
+      </c>
+      <c r="H210">
+        <v>922.5</v>
+      </c>
+      <c r="I210">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>906.9</v>
+      </c>
+      <c r="C211">
+        <v>82.91</v>
+      </c>
+      <c r="D211">
+        <v>878.6</v>
+      </c>
+      <c r="E211">
+        <v>87.91</v>
+      </c>
+      <c r="F211">
+        <v>849.3</v>
+      </c>
+      <c r="G211">
+        <v>86.83</v>
+      </c>
+      <c r="H211">
+        <v>840.9</v>
+      </c>
+      <c r="I211">
+        <v>76.59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>885.2</v>
+      </c>
+      <c r="C212">
+        <v>87.02</v>
+      </c>
+      <c r="D212">
+        <v>865.3</v>
+      </c>
+      <c r="E212">
+        <v>83.1</v>
+      </c>
+      <c r="F212">
+        <v>891.4</v>
+      </c>
+      <c r="G212">
+        <v>82.13</v>
+      </c>
+      <c r="H212">
+        <v>887.2</v>
+      </c>
+      <c r="I212">
+        <v>88.64</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>779.3</v>
+      </c>
+      <c r="C213">
+        <v>88.46</v>
+      </c>
+      <c r="D213">
+        <v>772.5</v>
+      </c>
+      <c r="E213">
+        <v>87.92</v>
+      </c>
+      <c r="F213">
+        <v>779.1</v>
+      </c>
+      <c r="G213">
+        <v>88.9</v>
+      </c>
+      <c r="H213">
+        <v>774.6</v>
+      </c>
+      <c r="I213">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>889.1</v>
+      </c>
+      <c r="C214">
+        <v>89.1</v>
+      </c>
+      <c r="D214">
+        <v>844.1</v>
+      </c>
+      <c r="E214">
+        <v>87.08</v>
+      </c>
+      <c r="F214">
+        <v>849.8</v>
+      </c>
+      <c r="G214">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H214">
+        <v>886.1</v>
+      </c>
+      <c r="I214">
+        <v>89.09</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>816.6</v>
+      </c>
+      <c r="C215">
+        <v>87.89</v>
+      </c>
+      <c r="D215">
+        <v>768.5</v>
+      </c>
+      <c r="E215">
+        <v>85.37</v>
+      </c>
+      <c r="F215">
+        <v>759.5</v>
+      </c>
+      <c r="G215">
+        <v>83.12</v>
+      </c>
+      <c r="H215">
+        <v>750.5</v>
+      </c>
+      <c r="I215">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>938.7</v>
+      </c>
+      <c r="C216">
+        <v>87.8</v>
+      </c>
+      <c r="D216">
+        <v>888.7</v>
+      </c>
+      <c r="E216">
+        <v>84.77</v>
+      </c>
+      <c r="F216">
+        <v>878.6</v>
+      </c>
+      <c r="G216">
+        <v>87.85</v>
+      </c>
+      <c r="H216">
+        <v>921.6</v>
+      </c>
+      <c r="I216">
+        <v>84.96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>835.1</v>
+      </c>
+      <c r="C217">
+        <v>78.39</v>
+      </c>
+      <c r="D217">
+        <v>846.2</v>
+      </c>
+      <c r="E217">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="F217">
+        <v>827.5</v>
+      </c>
+      <c r="G217">
+        <v>79.27</v>
+      </c>
+      <c r="H217">
+        <v>818.1</v>
+      </c>
+      <c r="I217">
+        <v>87.06</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>914.7</v>
+      </c>
+      <c r="C218">
+        <v>87.74</v>
+      </c>
+      <c r="D218">
+        <v>837.2</v>
+      </c>
+      <c r="E218">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="F218">
+        <v>837.2</v>
+      </c>
+      <c r="G218">
+        <v>88.84</v>
+      </c>
+      <c r="H218">
+        <v>912.1</v>
+      </c>
+      <c r="I218">
+        <v>83.39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>846.3</v>
+      </c>
+      <c r="C219">
+        <v>88.58</v>
+      </c>
+      <c r="D219">
+        <v>798.7</v>
+      </c>
+      <c r="E219">
+        <v>86.27</v>
+      </c>
+      <c r="F219">
+        <v>801.1</v>
+      </c>
+      <c r="G219">
+        <v>89.28</v>
+      </c>
+      <c r="H219">
+        <v>864.7</v>
+      </c>
+      <c r="I219">
+        <v>83.43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>961.8</v>
+      </c>
+      <c r="C220">
+        <v>84.93</v>
+      </c>
+      <c r="D220">
+        <v>870.4</v>
+      </c>
+      <c r="E220">
+        <v>85.78</v>
+      </c>
+      <c r="F220">
+        <v>872.8</v>
+      </c>
+      <c r="G220">
+        <v>87.57</v>
+      </c>
+      <c r="H220">
+        <v>923.5</v>
+      </c>
+      <c r="I220">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>804.1</v>
+      </c>
+      <c r="C221">
+        <v>88.93</v>
+      </c>
+      <c r="D221">
+        <v>766.5</v>
+      </c>
+      <c r="E221">
+        <v>86.41</v>
+      </c>
+      <c r="F221">
+        <v>792.3</v>
+      </c>
+      <c r="G221">
+        <v>88.55</v>
+      </c>
+      <c r="H221">
+        <v>808.3</v>
+      </c>
+      <c r="I221">
+        <v>88.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>801</v>
+      </c>
+      <c r="C222">
+        <v>85.06</v>
+      </c>
+      <c r="D222">
+        <v>739.4</v>
+      </c>
+      <c r="E222">
+        <v>86.51</v>
+      </c>
+      <c r="F222">
+        <v>729</v>
+      </c>
+      <c r="G222">
+        <v>89.37</v>
+      </c>
+      <c r="H222">
+        <v>795.3</v>
+      </c>
+      <c r="I222">
+        <v>83.36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>939</v>
+      </c>
+      <c r="C223">
+        <v>81.61</v>
+      </c>
+      <c r="D223">
+        <v>879.2</v>
+      </c>
+      <c r="E223">
+        <v>75.98</v>
+      </c>
+      <c r="F223">
+        <v>892.2</v>
+      </c>
+      <c r="G223">
+        <v>86.98</v>
+      </c>
+      <c r="H223">
+        <v>939.9</v>
+      </c>
+      <c r="I223">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>914.6</v>
+      </c>
+      <c r="C224">
+        <v>87.87</v>
+      </c>
+      <c r="D224">
+        <v>823.3</v>
+      </c>
+      <c r="E224">
+        <v>88.4</v>
+      </c>
+      <c r="F224">
+        <v>837</v>
+      </c>
+      <c r="G224">
+        <v>77.44</v>
+      </c>
+      <c r="H224">
+        <v>898.4</v>
+      </c>
+      <c r="I224">
+        <v>85.02</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>889</v>
+      </c>
+      <c r="C225">
+        <v>90</v>
+      </c>
+      <c r="D225">
+        <v>832.2</v>
+      </c>
+      <c r="E225">
+        <v>67.16</v>
+      </c>
+      <c r="F225">
+        <v>840.9</v>
+      </c>
+      <c r="G225">
+        <v>75.47</v>
+      </c>
+      <c r="H225">
+        <v>872.6</v>
+      </c>
+      <c r="I225">
+        <v>87.96</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>887.4</v>
+      </c>
+      <c r="C226">
+        <v>84.96</v>
+      </c>
+      <c r="D226">
+        <v>848.3</v>
+      </c>
+      <c r="E226">
+        <v>88.58</v>
+      </c>
+      <c r="F226">
+        <v>843.5</v>
+      </c>
+      <c r="G226">
+        <v>86.6</v>
+      </c>
+      <c r="H226">
+        <v>877.2</v>
+      </c>
+      <c r="I226">
+        <v>82.66</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>866.9</v>
+      </c>
+      <c r="C227">
+        <v>83.31</v>
+      </c>
+      <c r="D227">
+        <v>861.5</v>
+      </c>
+      <c r="E227">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="F227">
+        <v>865.2</v>
+      </c>
+      <c r="G227">
+        <v>82.09</v>
+      </c>
+      <c r="H227">
+        <v>874.6</v>
+      </c>
+      <c r="I227">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>853.3</v>
+      </c>
+      <c r="C228">
+        <v>88.59</v>
+      </c>
+      <c r="D228">
+        <v>808.4</v>
+      </c>
+      <c r="E228">
+        <v>88.3</v>
+      </c>
+      <c r="F228">
+        <v>824.3</v>
+      </c>
+      <c r="G228">
+        <v>82.89</v>
+      </c>
+      <c r="H228">
+        <v>875.2</v>
+      </c>
+      <c r="I228">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>908.4</v>
+      </c>
+      <c r="C229">
+        <v>88.36</v>
+      </c>
+      <c r="D229">
+        <v>843.8</v>
+      </c>
+      <c r="E229">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="F229">
+        <v>851.7</v>
+      </c>
+      <c r="G229">
+        <v>82.31</v>
+      </c>
+      <c r="H229">
+        <v>919</v>
+      </c>
+      <c r="I229">
+        <v>85.38</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>977.1</v>
+      </c>
+      <c r="C230">
+        <v>78.67</v>
+      </c>
+      <c r="D230">
+        <v>986.4</v>
+      </c>
+      <c r="E230">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="F230">
+        <v>988.1</v>
+      </c>
+      <c r="G230">
+        <v>79.33</v>
+      </c>
+      <c r="H230">
+        <v>956.7</v>
+      </c>
+      <c r="I230">
+        <v>79.28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>935.7</v>
+      </c>
+      <c r="C231">
+        <v>86.51</v>
+      </c>
+      <c r="D231">
+        <v>854.9</v>
+      </c>
+      <c r="E231">
+        <v>80.849999999999994</v>
+      </c>
+      <c r="F231">
+        <v>849.4</v>
+      </c>
+      <c r="G231">
+        <v>83.51</v>
+      </c>
+      <c r="H231">
+        <v>905.9</v>
+      </c>
+      <c r="I231">
+        <v>82.45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>886.7</v>
+      </c>
+      <c r="C232">
+        <v>84.11</v>
+      </c>
+      <c r="D232">
+        <v>842.3</v>
+      </c>
+      <c r="E232">
+        <v>85.78</v>
+      </c>
+      <c r="F232">
+        <v>845.9</v>
+      </c>
+      <c r="G232">
+        <v>87.29</v>
+      </c>
+      <c r="H232">
+        <v>907</v>
+      </c>
+      <c r="I232">
+        <v>86.21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>867.3</v>
+      </c>
+      <c r="C233">
+        <v>79.23</v>
+      </c>
+      <c r="D233">
+        <v>832.4</v>
+      </c>
+      <c r="E233">
+        <v>85.66</v>
+      </c>
+      <c r="F233">
+        <v>808.1</v>
+      </c>
+      <c r="G233">
+        <v>89.22</v>
+      </c>
+      <c r="H233">
+        <v>814.2</v>
+      </c>
+      <c r="I233">
+        <v>82.94</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>900.9</v>
+      </c>
+      <c r="C234">
+        <v>85.42</v>
+      </c>
+      <c r="D234">
+        <v>928.1</v>
+      </c>
+      <c r="E234">
+        <v>89.07</v>
+      </c>
+      <c r="F234">
+        <v>936.1</v>
+      </c>
+      <c r="G234">
+        <v>82.45</v>
+      </c>
+      <c r="H234">
+        <v>958.6</v>
+      </c>
+      <c r="I234">
+        <v>86.71</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>898.5</v>
+      </c>
+      <c r="C235">
+        <v>83.67</v>
+      </c>
+      <c r="D235">
+        <v>859.6</v>
+      </c>
+      <c r="E235">
+        <v>87.93</v>
+      </c>
+      <c r="F235">
+        <v>856.6</v>
+      </c>
+      <c r="G235">
+        <v>87.79</v>
+      </c>
+      <c r="H235">
+        <v>898.1</v>
+      </c>
+      <c r="I235">
+        <v>83.86</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>875</v>
+      </c>
+      <c r="C236">
+        <v>89.48</v>
+      </c>
+      <c r="D236">
+        <v>814.1</v>
+      </c>
+      <c r="E236">
+        <v>89.3</v>
+      </c>
+      <c r="F236">
+        <v>797.3</v>
+      </c>
+      <c r="G236">
+        <v>84.75</v>
+      </c>
+      <c r="H236">
+        <v>868.3</v>
+      </c>
+      <c r="I236">
+        <v>88.61</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>977.7</v>
+      </c>
+      <c r="C237">
+        <v>87.83</v>
+      </c>
+      <c r="D237">
+        <v>961.1</v>
+      </c>
+      <c r="E237">
+        <v>89.17</v>
+      </c>
+      <c r="F237">
+        <v>950.2</v>
+      </c>
+      <c r="G237">
+        <v>88.79</v>
+      </c>
+      <c r="H237">
+        <v>964.9</v>
+      </c>
+      <c r="I237">
+        <v>85.54</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1005.2</v>
+      </c>
+      <c r="C238">
+        <v>84.75</v>
+      </c>
+      <c r="D238">
+        <v>899.1</v>
+      </c>
+      <c r="E238">
+        <v>87.19</v>
+      </c>
+      <c r="F238">
+        <v>946</v>
+      </c>
+      <c r="G238">
+        <v>89.88</v>
+      </c>
+      <c r="H238">
+        <v>986.1</v>
+      </c>
+      <c r="I238">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>966.9</v>
+      </c>
+      <c r="C239">
+        <v>77.52</v>
+      </c>
+      <c r="D239">
+        <v>875.5</v>
+      </c>
+      <c r="E239">
+        <v>88.04</v>
+      </c>
+      <c r="F239">
+        <v>871.6</v>
+      </c>
+      <c r="G239">
+        <v>84.14</v>
+      </c>
+      <c r="H239">
+        <v>979.7</v>
+      </c>
+      <c r="I239">
+        <v>87.84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>915.6</v>
+      </c>
+      <c r="C240">
+        <v>87.93</v>
+      </c>
+      <c r="D240">
+        <v>858.1</v>
+      </c>
+      <c r="E240">
+        <v>84.38</v>
+      </c>
+      <c r="F240">
+        <v>864.7</v>
+      </c>
+      <c r="G240">
+        <v>82.36</v>
+      </c>
+      <c r="H240">
+        <v>906.7</v>
+      </c>
+      <c r="I240">
+        <v>84.81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>990.1</v>
+      </c>
+      <c r="C241">
+        <v>85.48</v>
+      </c>
+      <c r="D241">
+        <v>915.5</v>
+      </c>
+      <c r="E241">
+        <v>85.74</v>
+      </c>
+      <c r="F241">
+        <v>933.4</v>
+      </c>
+      <c r="G241">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="H241">
+        <v>961.3</v>
+      </c>
+      <c r="I241">
+        <v>88.63</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>925.6</v>
+      </c>
+      <c r="C242">
+        <v>82.68</v>
+      </c>
+      <c r="D242">
+        <v>887.5</v>
+      </c>
+      <c r="E242">
+        <v>77.97</v>
+      </c>
+      <c r="F242">
+        <v>891.5</v>
+      </c>
+      <c r="G242">
+        <v>77.69</v>
+      </c>
+      <c r="H242">
+        <v>895</v>
+      </c>
+      <c r="I242">
+        <v>89.68</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>886.1</v>
+      </c>
+      <c r="C243">
+        <v>88.97</v>
+      </c>
+      <c r="D243">
+        <v>767.5</v>
+      </c>
+      <c r="E243">
+        <v>83.79</v>
+      </c>
+      <c r="F243">
+        <v>785.3</v>
+      </c>
+      <c r="G243">
+        <v>88.39</v>
+      </c>
+      <c r="H243">
+        <v>900.6</v>
+      </c>
+      <c r="I243">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>891</v>
+      </c>
+      <c r="C244">
+        <v>87.3</v>
+      </c>
+      <c r="D244">
+        <v>877</v>
+      </c>
+      <c r="E244">
+        <v>87.32</v>
+      </c>
+      <c r="F244">
+        <v>879.3</v>
+      </c>
+      <c r="G244">
+        <v>85.89</v>
+      </c>
+      <c r="H244">
+        <v>887.3</v>
+      </c>
+      <c r="I244">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>899.6</v>
+      </c>
+      <c r="C245">
+        <v>82.08</v>
+      </c>
+      <c r="D245">
+        <v>855.3</v>
+      </c>
+      <c r="E245">
+        <v>88.39</v>
+      </c>
+      <c r="F245">
+        <v>882.6</v>
+      </c>
+      <c r="G245">
+        <v>85.58</v>
+      </c>
+      <c r="H245">
+        <v>908.5</v>
+      </c>
+      <c r="I245">
+        <v>84.95</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>940.3</v>
+      </c>
+      <c r="C246">
+        <v>86.95</v>
+      </c>
+      <c r="D246">
+        <v>909.3</v>
+      </c>
+      <c r="E246">
+        <v>86.97</v>
+      </c>
+      <c r="F246">
+        <v>917</v>
+      </c>
+      <c r="G246">
+        <v>89.44</v>
+      </c>
+      <c r="H246">
+        <v>950.2</v>
+      </c>
+      <c r="I246">
+        <v>83.47</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>861.6</v>
+      </c>
+      <c r="C247">
+        <v>86.54</v>
+      </c>
+      <c r="D247">
+        <v>790.5</v>
+      </c>
+      <c r="E247">
+        <v>86.45</v>
+      </c>
+      <c r="F247">
+        <v>805.5</v>
+      </c>
+      <c r="G247">
+        <v>82.15</v>
+      </c>
+      <c r="H247">
+        <v>828.1</v>
+      </c>
+      <c r="I247">
+        <v>89.31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>899</v>
+      </c>
+      <c r="C248">
+        <v>89.55</v>
+      </c>
+      <c r="D248">
+        <v>890.6</v>
+      </c>
+      <c r="E248">
+        <v>75.7</v>
+      </c>
+      <c r="F248">
+        <v>875.1</v>
+      </c>
+      <c r="G248">
+        <v>75.44</v>
+      </c>
+      <c r="H248">
+        <v>892.6</v>
+      </c>
+      <c r="I248">
+        <v>86.53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>869.1</v>
+      </c>
+      <c r="C249">
+        <v>87.1</v>
+      </c>
+      <c r="D249">
+        <v>815.5</v>
+      </c>
+      <c r="E249">
+        <v>83.95</v>
+      </c>
+      <c r="F249">
+        <v>827.2</v>
+      </c>
+      <c r="G249">
+        <v>86.95</v>
+      </c>
+      <c r="H249">
+        <v>858.2</v>
+      </c>
+      <c r="I249">
+        <v>85.05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>1014.1</v>
+      </c>
+      <c r="C250">
+        <v>83.2</v>
+      </c>
+      <c r="D250">
+        <v>891.2</v>
+      </c>
+      <c r="E250">
+        <v>86.98</v>
+      </c>
+      <c r="F250">
+        <v>919.2</v>
+      </c>
+      <c r="G250">
+        <v>86.01</v>
+      </c>
+      <c r="H250">
+        <v>1024.8</v>
+      </c>
+      <c r="I250">
+        <v>82.49</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>923.3</v>
+      </c>
+      <c r="C251">
+        <v>84.47</v>
+      </c>
+      <c r="D251">
+        <v>835.5</v>
+      </c>
+      <c r="E251">
+        <v>87.94</v>
+      </c>
+      <c r="F251">
+        <v>820.6</v>
+      </c>
+      <c r="G251">
+        <v>87.83</v>
+      </c>
+      <c r="H251">
+        <v>891.8</v>
+      </c>
+      <c r="I251">
+        <v>82.91</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>958.1</v>
+      </c>
+      <c r="C252">
+        <v>87.31</v>
+      </c>
+      <c r="D252">
+        <v>915</v>
+      </c>
+      <c r="E252">
+        <v>89.74</v>
+      </c>
+      <c r="F252">
+        <v>915.3</v>
+      </c>
+      <c r="G252">
+        <v>86.99</v>
+      </c>
+      <c r="H252">
+        <v>935.7</v>
+      </c>
+      <c r="I252">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>884.9</v>
+      </c>
+      <c r="C253">
+        <v>83.97</v>
+      </c>
+      <c r="D253">
+        <v>850.1</v>
+      </c>
+      <c r="E253">
+        <v>85.95</v>
+      </c>
+      <c r="F253">
+        <v>845.3</v>
+      </c>
+      <c r="G253">
+        <v>88.51</v>
+      </c>
+      <c r="H253">
+        <v>893.2</v>
+      </c>
+      <c r="I253">
+        <v>81.760000000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>955.2</v>
+      </c>
+      <c r="C254">
+        <v>85.32</v>
+      </c>
+      <c r="D254">
+        <v>929.6</v>
+      </c>
+      <c r="E254">
+        <v>84.32</v>
+      </c>
+      <c r="F254">
+        <v>896.5</v>
+      </c>
+      <c r="G254">
+        <v>82.57</v>
+      </c>
+      <c r="H254">
+        <v>948</v>
+      </c>
+      <c r="I254">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>1000.1</v>
+      </c>
+      <c r="C255">
+        <v>86.27</v>
+      </c>
+      <c r="D255">
+        <v>920.7</v>
+      </c>
+      <c r="E255">
+        <v>86.51</v>
+      </c>
+      <c r="F255">
+        <v>898</v>
+      </c>
+      <c r="G255">
+        <v>85.34</v>
+      </c>
+      <c r="H255">
+        <v>984.4</v>
+      </c>
+      <c r="I255">
+        <v>88.37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>896.5</v>
+      </c>
+      <c r="C256">
+        <v>88.02</v>
+      </c>
+      <c r="D256">
+        <v>825.3</v>
+      </c>
+      <c r="E256">
+        <v>83.53</v>
+      </c>
+      <c r="F256">
+        <v>819.3</v>
+      </c>
+      <c r="G256">
+        <v>84.82</v>
+      </c>
+      <c r="H256">
+        <v>876.1</v>
+      </c>
+      <c r="I256">
+        <v>89.22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>930.3</v>
+      </c>
+      <c r="C257">
+        <v>86.98</v>
+      </c>
+      <c r="D257">
+        <v>880</v>
+      </c>
+      <c r="E257">
+        <v>86.16</v>
+      </c>
+      <c r="F257">
+        <v>906.2</v>
+      </c>
+      <c r="G257">
+        <v>84.49</v>
+      </c>
+      <c r="H257">
+        <v>920.6</v>
+      </c>
+      <c r="I257">
+        <v>88.01</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>812.8</v>
+      </c>
+      <c r="C258">
+        <v>85.2</v>
+      </c>
+      <c r="D258">
+        <v>776.3</v>
+      </c>
+      <c r="E258">
+        <v>85.57</v>
+      </c>
+      <c r="F258">
+        <v>783.8</v>
+      </c>
+      <c r="G258">
+        <v>83.63</v>
+      </c>
+      <c r="H258">
+        <v>797.8</v>
+      </c>
+      <c r="I258">
+        <v>87.49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>841.7</v>
+      </c>
+      <c r="C259">
+        <v>83.93</v>
+      </c>
+      <c r="D259">
+        <v>868.3</v>
+      </c>
+      <c r="E259">
+        <v>88.48</v>
+      </c>
+      <c r="F259">
+        <v>859.4</v>
+      </c>
+      <c r="G259">
+        <v>88.27</v>
+      </c>
+      <c r="H259">
+        <v>860.9</v>
+      </c>
+      <c r="I259">
+        <v>87.34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>970.3</v>
+      </c>
+      <c r="C260">
+        <v>81.64</v>
+      </c>
+      <c r="D260">
+        <v>890.6</v>
+      </c>
+      <c r="E260">
+        <v>87.81</v>
+      </c>
+      <c r="F260">
+        <v>885.4</v>
+      </c>
+      <c r="G260">
+        <v>85.01</v>
+      </c>
+      <c r="H260">
+        <v>985.7</v>
+      </c>
+      <c r="I260">
+        <v>87.91</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>915</v>
+      </c>
+      <c r="C261">
+        <v>85.36</v>
+      </c>
+      <c r="D261">
+        <v>862.3</v>
+      </c>
+      <c r="E261">
+        <v>88.41</v>
+      </c>
+      <c r="F261">
+        <v>871.5</v>
+      </c>
+      <c r="G261">
+        <v>86.65</v>
+      </c>
+      <c r="H261">
+        <v>896.9</v>
+      </c>
+      <c r="I261">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>903.3</v>
+      </c>
+      <c r="C262">
+        <v>88.41</v>
+      </c>
+      <c r="D262">
+        <v>856.7</v>
+      </c>
+      <c r="E262">
+        <v>84.71</v>
+      </c>
+      <c r="F262">
+        <v>850.3</v>
+      </c>
+      <c r="G262">
+        <v>86.83</v>
+      </c>
+      <c r="H262">
+        <v>880.2</v>
+      </c>
+      <c r="I262">
+        <v>88.83</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>920.8</v>
+      </c>
+      <c r="C263">
+        <v>87.63</v>
+      </c>
+      <c r="D263">
+        <v>874.7</v>
+      </c>
+      <c r="E263">
+        <v>83.44</v>
+      </c>
+      <c r="F263">
+        <v>898.1</v>
+      </c>
+      <c r="G263">
+        <v>82.77</v>
+      </c>
+      <c r="H263">
+        <v>933</v>
+      </c>
+      <c r="I263">
+        <v>89.94</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>842.8</v>
+      </c>
+      <c r="C264">
+        <v>85.3</v>
+      </c>
+      <c r="D264">
+        <v>836</v>
+      </c>
+      <c r="E264">
+        <v>87.19</v>
+      </c>
+      <c r="F264">
+        <v>819.9</v>
+      </c>
+      <c r="G264">
+        <v>82.57</v>
+      </c>
+      <c r="H264">
+        <v>856.3</v>
+      </c>
+      <c r="I264">
+        <v>88.59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>883</v>
+      </c>
+      <c r="C265">
+        <v>89.55</v>
+      </c>
+      <c r="D265">
+        <v>778.5</v>
+      </c>
+      <c r="E265">
+        <v>85.43</v>
+      </c>
+      <c r="F265">
+        <v>795.3</v>
+      </c>
+      <c r="G265">
+        <v>86.68</v>
+      </c>
+      <c r="H265">
+        <v>879.2</v>
+      </c>
+      <c r="I265">
+        <v>85.96</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>883</v>
+      </c>
+      <c r="C266">
+        <v>89.94</v>
+      </c>
+      <c r="D266">
+        <v>847.3</v>
+      </c>
+      <c r="E266">
+        <v>82.47</v>
+      </c>
+      <c r="F266">
+        <v>840.4</v>
+      </c>
+      <c r="G266">
+        <v>76.44</v>
+      </c>
+      <c r="H266">
+        <v>893.1</v>
+      </c>
+      <c r="I266">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>992.2</v>
+      </c>
+      <c r="C267">
+        <v>88.9</v>
+      </c>
+      <c r="D267">
+        <v>1001.4</v>
+      </c>
+      <c r="E267">
+        <v>88.34</v>
+      </c>
+      <c r="F267">
+        <v>945</v>
+      </c>
+      <c r="G267">
+        <v>86.3</v>
+      </c>
+      <c r="H267">
+        <v>982</v>
+      </c>
+      <c r="I267">
+        <v>89.77</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>907.1</v>
+      </c>
+      <c r="C268">
+        <v>89.12</v>
+      </c>
+      <c r="D268">
+        <v>813.8</v>
+      </c>
+      <c r="E268">
+        <v>79.45</v>
+      </c>
+      <c r="F268">
+        <v>822.09</v>
+      </c>
+      <c r="G268">
+        <v>82.6</v>
+      </c>
+      <c r="H268">
+        <v>920.3</v>
+      </c>
+      <c r="I268">
+        <v>85.95</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>913.6</v>
+      </c>
+      <c r="C269">
+        <v>82.14</v>
+      </c>
+      <c r="D269">
+        <v>876.4</v>
+      </c>
+      <c r="E269">
+        <v>88.17</v>
+      </c>
+      <c r="F269">
+        <v>882.1</v>
+      </c>
+      <c r="G269">
+        <v>89.16</v>
+      </c>
+      <c r="H269">
+        <v>894.7</v>
+      </c>
+      <c r="I269">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>973.7</v>
+      </c>
+      <c r="C270">
+        <v>83.81</v>
+      </c>
+      <c r="D270">
+        <v>881.3</v>
+      </c>
+      <c r="E270">
+        <v>86.88</v>
+      </c>
+      <c r="F270">
+        <v>903.8</v>
+      </c>
+      <c r="G270">
+        <v>83.52</v>
+      </c>
+      <c r="H270">
+        <v>980.5</v>
+      </c>
+      <c r="I270">
+        <v>81.61</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>964.2</v>
+      </c>
+      <c r="C271">
+        <v>87.15</v>
+      </c>
+      <c r="D271">
+        <v>934.9</v>
+      </c>
+      <c r="E271">
+        <v>86.38</v>
+      </c>
+      <c r="F271">
+        <v>932.5</v>
+      </c>
+      <c r="G271">
+        <v>86.8</v>
+      </c>
+      <c r="H271">
+        <v>949.3</v>
+      </c>
+      <c r="I271">
+        <v>88.49</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>828.8</v>
+      </c>
+      <c r="C272">
+        <v>75.11</v>
+      </c>
+      <c r="D272">
+        <v>849.2</v>
+      </c>
+      <c r="E272">
+        <v>84.32</v>
+      </c>
+      <c r="F272">
+        <v>834.8</v>
+      </c>
+      <c r="G272">
+        <v>84.5</v>
+      </c>
+      <c r="H272">
+        <v>815.3</v>
+      </c>
+      <c r="I272">
+        <v>78.180000000000007</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>920.1</v>
+      </c>
+      <c r="C273">
+        <v>89.13</v>
+      </c>
+      <c r="D273">
+        <v>853.2</v>
+      </c>
+      <c r="E273">
+        <v>83.67</v>
+      </c>
+      <c r="F273">
+        <v>863.7</v>
+      </c>
+      <c r="G273">
+        <v>87.68</v>
+      </c>
+      <c r="H273">
+        <v>907.2</v>
+      </c>
+      <c r="I273">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>793.7</v>
+      </c>
+      <c r="C274">
+        <v>78.22</v>
+      </c>
+      <c r="D274">
+        <v>789.7</v>
+      </c>
+      <c r="E274">
+        <v>83.09</v>
+      </c>
+      <c r="F274">
+        <v>801.6</v>
+      </c>
+      <c r="G274">
+        <v>80.23</v>
+      </c>
+      <c r="H274">
+        <v>827</v>
+      </c>
+      <c r="I274">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1032.4000000000001</v>
+      </c>
+      <c r="C275">
+        <v>87.06</v>
+      </c>
+      <c r="D275">
+        <v>999.1</v>
+      </c>
+      <c r="E275">
+        <v>87.36</v>
+      </c>
+      <c r="F275">
+        <v>993.1</v>
+      </c>
+      <c r="G275">
+        <v>89.08</v>
+      </c>
+      <c r="H275">
+        <v>990.8</v>
+      </c>
+      <c r="I275">
+        <v>84.96</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>866.2</v>
+      </c>
+      <c r="C276">
+        <v>79.62</v>
+      </c>
+      <c r="D276">
+        <v>853.7</v>
+      </c>
+      <c r="E276">
+        <v>84.69</v>
+      </c>
+      <c r="F276">
+        <v>863</v>
+      </c>
+      <c r="G276">
+        <v>90</v>
+      </c>
+      <c r="H276">
+        <v>853.1</v>
+      </c>
+      <c r="I276">
+        <v>83.13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>934.1</v>
+      </c>
+      <c r="C277">
+        <v>89.39</v>
+      </c>
+      <c r="D277">
+        <v>874.4</v>
+      </c>
+      <c r="E277">
+        <v>84.22</v>
+      </c>
+      <c r="F277">
+        <v>881</v>
+      </c>
+      <c r="G277">
+        <v>83.88</v>
+      </c>
+      <c r="H277">
+        <v>945.1</v>
+      </c>
+      <c r="I277">
+        <v>89.39</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>879.1</v>
+      </c>
+      <c r="C278">
+        <v>89.28</v>
+      </c>
+      <c r="D278">
+        <v>853.9</v>
+      </c>
+      <c r="E278">
+        <v>84.56</v>
+      </c>
+      <c r="F278">
+        <v>851.7</v>
+      </c>
+      <c r="G278">
+        <v>86.43</v>
+      </c>
+      <c r="H278">
+        <v>872.7</v>
+      </c>
+      <c r="I278">
+        <v>83.42</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>966.9</v>
+      </c>
+      <c r="C279">
+        <v>86.44</v>
+      </c>
+      <c r="D279">
+        <v>968.5</v>
+      </c>
+      <c r="E279">
+        <v>85.86</v>
+      </c>
+      <c r="F279">
+        <v>976.1</v>
+      </c>
+      <c r="G279">
+        <v>89.41</v>
+      </c>
+      <c r="H279">
+        <v>967</v>
+      </c>
+      <c r="I279">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>921.6</v>
+      </c>
+      <c r="C280">
+        <v>85.71</v>
+      </c>
+      <c r="D280">
+        <v>937.9</v>
+      </c>
+      <c r="E280">
+        <v>87.43</v>
+      </c>
+      <c r="F280">
+        <v>912.1</v>
+      </c>
+      <c r="G280">
+        <v>84.59</v>
+      </c>
+      <c r="H280">
+        <v>912.1</v>
+      </c>
+      <c r="I280">
+        <v>80.28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>836</v>
+      </c>
+      <c r="C281">
+        <v>87.26</v>
+      </c>
+      <c r="D281">
+        <v>822.2</v>
+      </c>
+      <c r="E281">
+        <v>84.98</v>
+      </c>
+      <c r="F281">
+        <v>831.1</v>
+      </c>
+      <c r="G281">
+        <v>89.1</v>
+      </c>
+      <c r="H281">
+        <v>839.4</v>
+      </c>
+      <c r="I281">
+        <v>84.81</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>911.1</v>
+      </c>
+      <c r="C282">
+        <v>81.48</v>
+      </c>
+      <c r="D282">
+        <v>855.7</v>
+      </c>
+      <c r="E282">
+        <v>84.64</v>
+      </c>
+      <c r="F282">
+        <v>870.7</v>
+      </c>
+      <c r="G282">
+        <v>85.52</v>
+      </c>
+      <c r="H282">
+        <v>899.7</v>
+      </c>
+      <c r="I282">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>774.1</v>
+      </c>
+      <c r="C283">
+        <v>88.96</v>
+      </c>
+      <c r="D283">
+        <v>736.1</v>
+      </c>
+      <c r="E283">
+        <v>84.78</v>
+      </c>
+      <c r="F283">
+        <v>768.7</v>
+      </c>
+      <c r="G283">
+        <v>80.87</v>
+      </c>
+      <c r="H283">
+        <v>769.1</v>
+      </c>
+      <c r="I283">
+        <v>89.03</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>885</v>
+      </c>
+      <c r="C284">
+        <v>89.42</v>
+      </c>
+      <c r="D284">
+        <v>868.5</v>
+      </c>
+      <c r="E284">
+        <v>79.52</v>
+      </c>
+      <c r="F284">
+        <v>890.8</v>
+      </c>
+      <c r="G284">
+        <v>84.72</v>
+      </c>
+      <c r="H284">
+        <v>945</v>
+      </c>
+      <c r="I284">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>905.2</v>
+      </c>
+      <c r="C285">
+        <v>88.8</v>
+      </c>
+      <c r="D285">
+        <v>877</v>
+      </c>
+      <c r="E285">
+        <v>85.23</v>
+      </c>
+      <c r="F285">
+        <v>900.7</v>
+      </c>
+      <c r="G285">
+        <v>87.77</v>
+      </c>
+      <c r="H285">
+        <v>835.3</v>
+      </c>
+      <c r="I285">
+        <v>81.459999999999994</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>909.5</v>
+      </c>
+      <c r="C286">
+        <v>84.32</v>
+      </c>
+      <c r="D286">
+        <v>871.5</v>
+      </c>
+      <c r="E286">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="F286">
+        <v>849.6</v>
+      </c>
+      <c r="G286">
+        <v>76.45</v>
+      </c>
+      <c r="H286">
+        <v>904.9</v>
+      </c>
+      <c r="I286">
+        <v>80.709999999999994</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>964.2</v>
+      </c>
+      <c r="C287">
+        <v>88.81</v>
+      </c>
+      <c r="D287">
+        <v>926.6</v>
+      </c>
+      <c r="E287">
+        <v>80.56</v>
+      </c>
+      <c r="F287">
+        <v>931.9</v>
+      </c>
+      <c r="G287">
+        <v>86.31</v>
+      </c>
+      <c r="H287">
+        <v>954.8</v>
+      </c>
+      <c r="I287">
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>946.6</v>
+      </c>
+      <c r="C288">
+        <v>85.76</v>
+      </c>
+      <c r="D288">
+        <v>865.9</v>
+      </c>
+      <c r="E288">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="F288">
+        <v>854.8</v>
+      </c>
+      <c r="G288">
+        <v>77.64</v>
+      </c>
+      <c r="H288">
+        <v>938.7</v>
+      </c>
+      <c r="I288">
+        <v>85.66</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>964.1</v>
+      </c>
+      <c r="C289">
+        <v>89.17</v>
+      </c>
+      <c r="D289">
+        <v>910.1</v>
+      </c>
+      <c r="E289">
+        <v>87.23</v>
+      </c>
+      <c r="F289">
+        <v>896</v>
+      </c>
+      <c r="G289">
+        <v>89.49</v>
+      </c>
+      <c r="H289">
+        <v>929</v>
+      </c>
+      <c r="I289">
+        <v>89.69</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>979.9</v>
+      </c>
+      <c r="C290">
+        <v>84.26</v>
+      </c>
+      <c r="D290">
+        <v>929.8</v>
+      </c>
+      <c r="E290">
+        <v>87.66</v>
+      </c>
+      <c r="F290">
+        <v>922</v>
+      </c>
+      <c r="G290">
+        <v>89.81</v>
+      </c>
+      <c r="H290">
+        <v>967.4</v>
+      </c>
+      <c r="I290">
+        <v>84.54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>863</v>
+      </c>
+      <c r="C291">
+        <v>89.6</v>
+      </c>
+      <c r="D291">
+        <v>797.6</v>
+      </c>
+      <c r="E291">
+        <v>83.81</v>
+      </c>
+      <c r="F291">
+        <v>785.5</v>
+      </c>
+      <c r="G291">
+        <v>86.5</v>
+      </c>
+      <c r="H291">
+        <v>857.8</v>
+      </c>
+      <c r="I291">
+        <v>86.26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>957.9</v>
+      </c>
+      <c r="C292">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="D292">
+        <v>881.9</v>
+      </c>
+      <c r="E292">
+        <v>87.47</v>
+      </c>
+      <c r="F292">
+        <v>870.5</v>
+      </c>
+      <c r="G292">
+        <v>85.65</v>
+      </c>
+      <c r="H292">
+        <v>901.4</v>
+      </c>
+      <c r="I292">
+        <v>86.76</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>878.4</v>
+      </c>
+      <c r="C293">
+        <v>86.74</v>
+      </c>
+      <c r="D293">
+        <v>862.5</v>
+      </c>
+      <c r="E293">
+        <v>86.61</v>
+      </c>
+      <c r="F293">
+        <v>880.2</v>
+      </c>
+      <c r="G293">
+        <v>82.16</v>
+      </c>
+      <c r="H293">
+        <v>905.1</v>
+      </c>
+      <c r="I293">
+        <v>89.18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>992.8</v>
+      </c>
+      <c r="C294">
+        <v>79.44</v>
+      </c>
+      <c r="D294">
+        <v>935.7</v>
+      </c>
+      <c r="E294">
+        <v>84.91</v>
+      </c>
+      <c r="F294">
+        <v>952</v>
+      </c>
+      <c r="G294">
+        <v>89.7</v>
+      </c>
+      <c r="H294">
+        <v>1011.7</v>
+      </c>
+      <c r="I294">
+        <v>82.05</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>893.1</v>
+      </c>
+      <c r="C295">
+        <v>89.1</v>
+      </c>
+      <c r="D295">
+        <v>829.8</v>
+      </c>
+      <c r="E295">
+        <v>79.94</v>
+      </c>
+      <c r="F295">
+        <v>830.8</v>
+      </c>
+      <c r="G295">
+        <v>83.85</v>
+      </c>
+      <c r="H295">
+        <v>895.5</v>
+      </c>
+      <c r="I295">
+        <v>88.02</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>813.3</v>
+      </c>
+      <c r="C296">
+        <v>88.52</v>
+      </c>
+      <c r="D296">
+        <v>780.1</v>
+      </c>
+      <c r="E296">
+        <v>84.85</v>
+      </c>
+      <c r="F296">
+        <v>762.9</v>
+      </c>
+      <c r="G296">
+        <v>84.96</v>
+      </c>
+      <c r="H296">
+        <v>805.9</v>
+      </c>
+      <c r="I296">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>932.3</v>
+      </c>
+      <c r="C297">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="D297">
+        <v>918.1</v>
+      </c>
+      <c r="E297">
+        <v>89</v>
+      </c>
+      <c r="F297">
+        <v>915</v>
+      </c>
+      <c r="G297">
+        <v>89.56</v>
+      </c>
+      <c r="H297">
+        <v>925.5</v>
+      </c>
+      <c r="I297">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>1020.3</v>
+      </c>
+      <c r="C298">
+        <v>84.71</v>
+      </c>
+      <c r="D298">
+        <v>964.8</v>
+      </c>
+      <c r="E298">
+        <v>85.6</v>
+      </c>
+      <c r="F298">
+        <v>942.5</v>
+      </c>
+      <c r="G298">
+        <v>88.05</v>
+      </c>
+      <c r="H298">
+        <v>991.9</v>
+      </c>
+      <c r="I298">
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>938.3</v>
+      </c>
+      <c r="C299">
+        <v>88.66</v>
+      </c>
+      <c r="D299">
+        <v>933.6</v>
+      </c>
+      <c r="E299">
+        <v>85.7</v>
+      </c>
+      <c r="F299">
+        <v>916.2</v>
+      </c>
+      <c r="G299">
+        <v>88.75</v>
+      </c>
+      <c r="H299">
+        <v>926.6</v>
+      </c>
+      <c r="I299">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>919.6</v>
+      </c>
+      <c r="C300">
+        <v>87.88</v>
+      </c>
+      <c r="D300">
+        <v>867.4</v>
+      </c>
+      <c r="E300">
+        <v>88.22</v>
+      </c>
+      <c r="F300">
+        <v>878.7</v>
+      </c>
+      <c r="G300">
+        <v>87.72</v>
+      </c>
+      <c r="H300">
+        <v>852.8</v>
+      </c>
+      <c r="I300">
+        <v>85.36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>877.9</v>
+      </c>
+      <c r="C301">
+        <v>85.36</v>
+      </c>
+      <c r="D301">
+        <v>807</v>
+      </c>
+      <c r="E301">
+        <v>81.45</v>
+      </c>
+      <c r="F301">
+        <v>784.2</v>
+      </c>
+      <c r="G301">
+        <v>88.68</v>
+      </c>
+      <c r="H301">
+        <v>867.1</v>
+      </c>
+      <c r="I301">
+        <v>82.18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>862.4</v>
+      </c>
+      <c r="C302">
+        <v>84.88</v>
+      </c>
+      <c r="D302">
+        <v>761.5</v>
+      </c>
+      <c r="E302">
+        <v>86.39</v>
+      </c>
+      <c r="F302">
+        <v>808</v>
+      </c>
+      <c r="G302">
+        <v>89.57</v>
+      </c>
+      <c r="H302">
+        <v>857.8</v>
+      </c>
+      <c r="I302">
+        <v>86.32</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>874.6</v>
+      </c>
+      <c r="C303">
+        <v>85.54</v>
+      </c>
+      <c r="D303">
+        <v>823.2</v>
+      </c>
+      <c r="E303">
+        <v>88.75</v>
+      </c>
+      <c r="F303">
+        <v>828.9</v>
+      </c>
+      <c r="G303">
+        <v>83.77</v>
+      </c>
+      <c r="H303">
+        <v>888.1</v>
+      </c>
+      <c r="I303">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>974.5</v>
+      </c>
+      <c r="C304">
+        <v>88.24</v>
+      </c>
+      <c r="D304">
+        <v>880.2</v>
+      </c>
+      <c r="E304">
+        <v>85.11</v>
+      </c>
+      <c r="F304">
+        <v>878.2</v>
+      </c>
+      <c r="G304">
+        <v>83.79</v>
+      </c>
+      <c r="H304">
+        <v>973.1</v>
+      </c>
+      <c r="I304">
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>874.7</v>
+      </c>
+      <c r="C305">
+        <v>82.38</v>
+      </c>
+      <c r="D305">
+        <v>782</v>
+      </c>
+      <c r="E305">
+        <v>89.56</v>
+      </c>
+      <c r="F305">
+        <v>794.3</v>
+      </c>
+      <c r="G305">
+        <v>88.56</v>
+      </c>
+      <c r="H305">
+        <v>858.5</v>
+      </c>
+      <c r="I305">
+        <v>84.12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>985</v>
+      </c>
+      <c r="C306">
+        <v>87.38</v>
+      </c>
+      <c r="D306">
+        <v>870.6</v>
+      </c>
+      <c r="E306">
+        <v>87.89</v>
+      </c>
+      <c r="F306">
+        <v>877.2</v>
+      </c>
+      <c r="G306">
+        <v>88.82</v>
+      </c>
+      <c r="H306">
+        <v>969.6</v>
+      </c>
+      <c r="I306">
+        <v>86.75</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>905.6</v>
+      </c>
+      <c r="C307">
+        <v>82.58</v>
+      </c>
+      <c r="D307">
+        <v>845.9</v>
+      </c>
+      <c r="E307">
+        <v>87.29</v>
+      </c>
+      <c r="F307">
+        <v>867</v>
+      </c>
+      <c r="G307">
+        <v>89.6</v>
+      </c>
+      <c r="H307">
+        <v>896.5</v>
+      </c>
+      <c r="I307">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>855.1</v>
+      </c>
+      <c r="C308">
+        <v>82.61</v>
+      </c>
+      <c r="D308">
+        <v>823.5</v>
+      </c>
+      <c r="E308">
+        <v>74.36</v>
+      </c>
+      <c r="F308">
+        <v>828.6</v>
+      </c>
+      <c r="G308">
+        <v>74.39</v>
+      </c>
+      <c r="H308">
+        <v>820.1</v>
+      </c>
+      <c r="I308">
+        <v>81.45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>959.4</v>
+      </c>
+      <c r="C309">
+        <v>86.95</v>
+      </c>
+      <c r="D309">
+        <v>976.6</v>
+      </c>
+      <c r="E309">
+        <v>88.06</v>
+      </c>
+      <c r="F309">
+        <v>975.5</v>
+      </c>
+      <c r="G309">
+        <v>86.83</v>
+      </c>
+      <c r="H309">
+        <v>953.9</v>
+      </c>
+      <c r="I309">
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>913.9</v>
+      </c>
+      <c r="C310">
+        <v>82.96</v>
+      </c>
+      <c r="D310">
+        <v>864</v>
+      </c>
+      <c r="E310">
+        <v>89.73</v>
+      </c>
+      <c r="F310">
+        <v>867.7</v>
+      </c>
+      <c r="G310">
+        <v>87.69</v>
+      </c>
+      <c r="H310">
+        <v>903.9</v>
+      </c>
+      <c r="I310">
+        <v>83.46</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>992.9</v>
+      </c>
+      <c r="C311">
+        <v>83.76</v>
+      </c>
+      <c r="D311">
+        <v>946.9</v>
+      </c>
+      <c r="E311">
+        <v>87.46</v>
+      </c>
+      <c r="F311">
+        <v>957.3</v>
+      </c>
+      <c r="G311">
+        <v>87.01</v>
+      </c>
+      <c r="H311">
+        <v>986.3</v>
+      </c>
+      <c r="I311">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>898.4</v>
+      </c>
+      <c r="C312">
+        <v>75.56</v>
+      </c>
+      <c r="D312">
+        <v>870.1</v>
+      </c>
+      <c r="E312">
+        <v>85.98</v>
+      </c>
+      <c r="F312">
+        <v>870</v>
+      </c>
+      <c r="G312">
+        <v>90</v>
+      </c>
+      <c r="H312">
+        <v>882.8</v>
+      </c>
+      <c r="I312">
+        <v>81.92</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>881.1</v>
+      </c>
+      <c r="C313">
+        <v>87.14</v>
+      </c>
+      <c r="D313">
+        <v>837.2</v>
+      </c>
+      <c r="E313">
+        <v>81.48</v>
+      </c>
+      <c r="F313">
+        <v>854.4</v>
+      </c>
+      <c r="G313">
+        <v>88.32</v>
+      </c>
+      <c r="H313">
+        <v>870.8</v>
+      </c>
+      <c r="I313">
+        <v>78.739999999999995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>893.9</v>
+      </c>
+      <c r="C314">
+        <v>82.87</v>
+      </c>
+      <c r="D314">
+        <v>850</v>
+      </c>
+      <c r="E314">
+        <v>89.66</v>
+      </c>
+      <c r="F314">
+        <v>849</v>
+      </c>
+      <c r="G314">
+        <v>89.6</v>
+      </c>
+      <c r="H314">
+        <v>884</v>
+      </c>
+      <c r="I314">
+        <v>82.79</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>869.1</v>
+      </c>
+      <c r="C315">
+        <v>83.79</v>
+      </c>
+      <c r="D315">
+        <v>833.4</v>
+      </c>
+      <c r="E315">
+        <v>88.28</v>
+      </c>
+      <c r="F315">
+        <v>825</v>
+      </c>
+      <c r="G315">
+        <v>85.97</v>
+      </c>
+      <c r="H315">
+        <v>848.1</v>
+      </c>
+      <c r="I315">
+        <v>79.540000000000006</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>908.7</v>
+      </c>
+      <c r="C316">
+        <v>85.58</v>
+      </c>
+      <c r="D316">
+        <v>871.9</v>
+      </c>
+      <c r="E316">
+        <v>87.44</v>
+      </c>
+      <c r="F316">
+        <v>844.9</v>
+      </c>
+      <c r="G316">
+        <v>87.35</v>
+      </c>
+      <c r="H316">
+        <v>913.3</v>
+      </c>
+      <c r="I316">
+        <v>88.62</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>908.2</v>
+      </c>
+      <c r="C317">
+        <v>87.1</v>
+      </c>
+      <c r="D317">
+        <v>851.1</v>
+      </c>
+      <c r="E317">
+        <v>82.57</v>
+      </c>
+      <c r="F317">
+        <v>841.1</v>
+      </c>
+      <c r="G317">
+        <v>87.07</v>
+      </c>
+      <c r="H317">
+        <v>912</v>
+      </c>
+      <c r="I317">
+        <v>87.36</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>911.2</v>
+      </c>
+      <c r="C318">
+        <v>82.31</v>
+      </c>
+      <c r="D318">
+        <v>895.1</v>
+      </c>
+      <c r="E318">
+        <v>84.49</v>
+      </c>
+      <c r="F318">
+        <v>886.9</v>
+      </c>
+      <c r="G318">
+        <v>86.25</v>
+      </c>
+      <c r="H318">
+        <v>890.7</v>
+      </c>
+      <c r="I318">
+        <v>81.540000000000006</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>948.5</v>
+      </c>
+      <c r="C319">
+        <v>85.1</v>
+      </c>
+      <c r="D319">
+        <v>882.9</v>
+      </c>
+      <c r="E319">
+        <v>87.47</v>
+      </c>
+      <c r="F319">
+        <v>896.8</v>
+      </c>
+      <c r="G319">
+        <v>87.51</v>
+      </c>
+      <c r="H319">
+        <v>977.3</v>
+      </c>
+      <c r="I319">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>1014.3</v>
+      </c>
+      <c r="C320">
+        <v>80.7</v>
+      </c>
+      <c r="D320">
+        <v>929.1</v>
+      </c>
+      <c r="E320">
+        <v>89.2</v>
+      </c>
+      <c r="F320">
+        <v>923.5</v>
+      </c>
+      <c r="G320">
+        <v>88.14</v>
+      </c>
+      <c r="H320">
+        <v>976.6</v>
+      </c>
+      <c r="I320">
+        <v>84.42</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>860.2</v>
+      </c>
+      <c r="C321">
+        <v>88.67</v>
+      </c>
+      <c r="D321">
+        <v>825.6</v>
+      </c>
+      <c r="E321">
+        <v>84.65</v>
+      </c>
+      <c r="F321">
+        <v>811.8</v>
+      </c>
+      <c r="G321">
+        <v>86.19</v>
+      </c>
+      <c r="H321">
+        <v>873.5</v>
+      </c>
+      <c r="I321">
+        <v>88.03</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>949.2</v>
+      </c>
+      <c r="C322">
+        <v>81.58</v>
+      </c>
+      <c r="D322">
+        <v>915.2</v>
+      </c>
+      <c r="E322">
+        <v>88.87</v>
+      </c>
+      <c r="F322">
+        <v>916.3</v>
+      </c>
+      <c r="G322">
+        <v>88.56</v>
+      </c>
+      <c r="H322">
+        <v>916.7</v>
+      </c>
+      <c r="I322">
+        <v>85.62</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>953</v>
+      </c>
+      <c r="C323">
+        <v>89.82</v>
+      </c>
+      <c r="D323">
+        <v>925.6</v>
+      </c>
+      <c r="E323">
+        <v>84.3</v>
+      </c>
+      <c r="F323">
+        <v>946</v>
+      </c>
+      <c r="G323">
+        <v>77.61</v>
+      </c>
+      <c r="H323">
+        <v>919.7</v>
+      </c>
+      <c r="I323">
+        <v>87.69</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>883.8</v>
+      </c>
+      <c r="C324">
+        <v>87.6</v>
+      </c>
+      <c r="D324">
+        <v>840.4</v>
+      </c>
+      <c r="E324">
+        <v>83.51</v>
+      </c>
+      <c r="F324">
+        <v>815.8</v>
+      </c>
+      <c r="G324">
+        <v>84.44</v>
+      </c>
+      <c r="H324">
+        <v>876.8</v>
+      </c>
+      <c r="I324">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>944</v>
+      </c>
+      <c r="C325">
+        <v>89.7</v>
+      </c>
+      <c r="D325">
+        <v>857.5</v>
+      </c>
+      <c r="E325">
+        <v>82.43</v>
+      </c>
+      <c r="F325">
+        <v>830</v>
+      </c>
+      <c r="G325">
+        <v>81.55</v>
+      </c>
+      <c r="H325">
+        <v>963</v>
+      </c>
+      <c r="I325">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>934</v>
+      </c>
+      <c r="C326">
+        <v>89.94</v>
+      </c>
+      <c r="D326">
+        <v>867.9</v>
+      </c>
+      <c r="E326">
+        <v>83.32</v>
+      </c>
+      <c r="F326">
+        <v>867.6</v>
+      </c>
+      <c r="G326">
+        <v>83.51</v>
+      </c>
+      <c r="H326">
+        <v>935.2</v>
+      </c>
+      <c r="I326">
+        <v>88.84</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>935.7</v>
+      </c>
+      <c r="C327">
+        <v>86.51</v>
+      </c>
+      <c r="D327">
+        <v>912.9</v>
+      </c>
+      <c r="E327">
+        <v>77.73</v>
+      </c>
+      <c r="F327">
+        <v>879.9</v>
+      </c>
+      <c r="G327">
+        <v>80.98</v>
+      </c>
+      <c r="H327">
+        <v>932.5</v>
+      </c>
+      <c r="I327">
+        <v>88.22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>906.2</v>
+      </c>
+      <c r="C328">
+        <v>88.86</v>
+      </c>
+      <c r="D328">
+        <v>846</v>
+      </c>
+      <c r="E328">
+        <v>89.39</v>
+      </c>
+      <c r="F328">
+        <v>838</v>
+      </c>
+      <c r="G328">
+        <v>89.52</v>
+      </c>
+      <c r="H328">
+        <v>884.1</v>
+      </c>
+      <c r="I328">
+        <v>89.35</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>934.6</v>
+      </c>
+      <c r="C329">
+        <v>87.92</v>
+      </c>
+      <c r="D329">
+        <v>918.9</v>
+      </c>
+      <c r="E329">
+        <v>79.34</v>
+      </c>
+      <c r="F329">
+        <v>921.1</v>
+      </c>
+      <c r="G329">
+        <v>77.709999999999994</v>
+      </c>
+      <c r="H329">
+        <v>944.4</v>
+      </c>
+      <c r="I329">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>956.5</v>
+      </c>
+      <c r="C330">
+        <v>86.76</v>
+      </c>
+      <c r="D330">
+        <v>889.1</v>
+      </c>
+      <c r="E330">
+        <v>88.97</v>
+      </c>
+      <c r="F330">
+        <v>897.2</v>
+      </c>
+      <c r="G330">
+        <v>88.72</v>
+      </c>
+      <c r="H330">
+        <v>921.6</v>
+      </c>
+      <c r="I330">
+        <v>88.01</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>981.3</v>
+      </c>
+      <c r="C331">
+        <v>85.27</v>
+      </c>
+      <c r="D331">
+        <v>914.5</v>
+      </c>
+      <c r="E331">
+        <v>88.12</v>
+      </c>
+      <c r="F331">
+        <v>886.2</v>
+      </c>
+      <c r="G331">
+        <v>85.92</v>
+      </c>
+      <c r="H331">
+        <v>944.1</v>
+      </c>
+      <c r="I331">
+        <v>89.03</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>975.3</v>
+      </c>
+      <c r="C332">
+        <v>85.29</v>
+      </c>
+      <c r="D332">
+        <v>881.1</v>
+      </c>
+      <c r="E332">
+        <v>85.18</v>
+      </c>
+      <c r="F332">
+        <v>888.7</v>
+      </c>
+      <c r="G332">
+        <v>84.12</v>
+      </c>
+      <c r="H332">
+        <v>967.2</v>
+      </c>
+      <c r="I332">
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>945.1</v>
+      </c>
+      <c r="C333">
+        <v>83.5</v>
+      </c>
+      <c r="D333">
+        <v>861.2</v>
+      </c>
+      <c r="E333">
+        <v>86.94</v>
+      </c>
+      <c r="F333">
+        <v>859</v>
+      </c>
+      <c r="G333">
+        <v>89.73</v>
+      </c>
+      <c r="H333">
+        <v>925.1</v>
+      </c>
+      <c r="I333">
+        <v>80.73</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>903.3</v>
+      </c>
+      <c r="C334">
+        <v>88.6</v>
+      </c>
+      <c r="D334">
+        <v>842.5</v>
+      </c>
+      <c r="E334">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F334">
+        <v>875.2</v>
+      </c>
+      <c r="G334">
+        <v>88.89</v>
+      </c>
+      <c r="H334">
+        <v>924.9</v>
+      </c>
+      <c r="I334">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>988.4</v>
+      </c>
+      <c r="C335">
+        <v>88.43</v>
+      </c>
+      <c r="D335">
+        <v>895.5</v>
+      </c>
+      <c r="E335">
+        <v>82.56</v>
+      </c>
+      <c r="F335">
+        <v>895.2</v>
+      </c>
+      <c r="G335">
+        <v>85.13</v>
+      </c>
+      <c r="H335">
+        <v>981</v>
+      </c>
+      <c r="I335">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>997.2</v>
+      </c>
+      <c r="C336">
+        <v>88.74</v>
+      </c>
+      <c r="D336">
+        <v>955.8</v>
+      </c>
+      <c r="E336">
+        <v>84.9</v>
+      </c>
+      <c r="F336">
+        <v>949</v>
+      </c>
+      <c r="G336">
+        <v>89.52</v>
+      </c>
+      <c r="H336">
+        <v>978.8</v>
+      </c>
+      <c r="I336">
+        <v>86.49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>814.9</v>
+      </c>
+      <c r="C337">
+        <v>86.13</v>
+      </c>
+      <c r="D337">
+        <v>805.2</v>
+      </c>
+      <c r="E337">
+        <v>84.15</v>
+      </c>
+      <c r="F337">
+        <v>814.2</v>
+      </c>
+      <c r="G337">
+        <v>81.38</v>
+      </c>
+      <c r="H337">
+        <v>817</v>
+      </c>
+      <c r="I337">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1003.5</v>
+      </c>
+      <c r="C338">
+        <v>81.69</v>
+      </c>
+      <c r="D338">
+        <v>945.9</v>
+      </c>
+      <c r="E338">
+        <v>87.46</v>
+      </c>
+      <c r="F338">
+        <v>941.8</v>
+      </c>
+      <c r="G338">
+        <v>87.63</v>
+      </c>
+      <c r="H338">
+        <v>992.6</v>
+      </c>
+      <c r="I338">
+        <v>83.93</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>969</v>
+      </c>
+      <c r="C339">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="D339">
+        <v>885</v>
+      </c>
+      <c r="E339">
+        <v>89.81</v>
+      </c>
+      <c r="F339">
+        <v>872.6</v>
+      </c>
+      <c r="G339">
+        <v>84.15</v>
+      </c>
+      <c r="H339">
+        <v>942.3</v>
+      </c>
+      <c r="I339">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>944.6</v>
+      </c>
+      <c r="C340">
+        <v>82.27</v>
+      </c>
+      <c r="D340">
+        <v>898.6</v>
+      </c>
+      <c r="E340">
+        <v>87.83</v>
+      </c>
+      <c r="F340">
+        <v>905.5</v>
+      </c>
+      <c r="G340">
+        <v>88.04</v>
+      </c>
+      <c r="H340">
+        <v>917.7</v>
+      </c>
+      <c r="I340">
+        <v>80.47</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>823.3</v>
+      </c>
+      <c r="C341">
+        <v>84.14</v>
+      </c>
+      <c r="D341">
+        <v>806.9</v>
+      </c>
+      <c r="E341">
+        <v>87.3</v>
+      </c>
+      <c r="F341">
+        <v>819.3</v>
+      </c>
+      <c r="G341">
+        <v>88.46</v>
+      </c>
+      <c r="H341">
+        <v>791.6</v>
+      </c>
+      <c r="I341">
+        <v>83.84</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>943.2</v>
+      </c>
+      <c r="C342">
+        <v>83.98</v>
+      </c>
+      <c r="D342">
+        <v>850.1</v>
+      </c>
+      <c r="E342">
+        <v>89.19</v>
+      </c>
+      <c r="F342">
+        <v>877.5</v>
+      </c>
+      <c r="G342">
+        <v>83.59</v>
+      </c>
+      <c r="H342">
+        <v>886.1</v>
+      </c>
+      <c r="I342">
+        <v>80.12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>906</v>
+      </c>
+      <c r="C343">
+        <v>89.49</v>
+      </c>
+      <c r="D343">
+        <v>819.3</v>
+      </c>
+      <c r="E343">
+        <v>82.35</v>
+      </c>
+      <c r="F343">
+        <v>843.6</v>
+      </c>
+      <c r="G343">
+        <v>82.85</v>
+      </c>
+      <c r="H343">
+        <v>923</v>
+      </c>
+      <c r="I343">
+        <v>89.63</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>983.1</v>
+      </c>
+      <c r="C344">
+        <v>87.26</v>
+      </c>
+      <c r="D344">
+        <v>871.4</v>
+      </c>
+      <c r="E344">
+        <v>85.72</v>
+      </c>
+      <c r="F344">
+        <v>931</v>
+      </c>
+      <c r="G344">
+        <v>84.08</v>
+      </c>
+      <c r="H344">
+        <v>966.9</v>
+      </c>
+      <c r="I344">
+        <v>86.38</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>937.4</v>
+      </c>
+      <c r="C345">
+        <v>86.88</v>
+      </c>
+      <c r="D345">
+        <v>871.3</v>
+      </c>
+      <c r="E345">
+        <v>88.49</v>
+      </c>
+      <c r="F345">
+        <v>873.4</v>
+      </c>
+      <c r="G345">
+        <v>86.72</v>
+      </c>
+      <c r="H345">
+        <v>946.2</v>
+      </c>
+      <c r="I345">
+        <v>88.91</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>894.4</v>
+      </c>
+      <c r="C346">
+        <v>84.29</v>
+      </c>
+      <c r="D346">
+        <v>848</v>
+      </c>
+      <c r="E346">
+        <v>89.46</v>
+      </c>
+      <c r="F346">
+        <v>869.1</v>
+      </c>
+      <c r="G346">
+        <v>89.27</v>
+      </c>
+      <c r="H346">
+        <v>884.1</v>
+      </c>
+      <c r="I346">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>824</v>
+      </c>
+      <c r="C347">
+        <v>86.03</v>
+      </c>
+      <c r="D347">
+        <v>807.8</v>
+      </c>
+      <c r="E347">
+        <v>87.45</v>
+      </c>
+      <c r="F347">
+        <v>816.1</v>
+      </c>
+      <c r="G347">
+        <v>88.95</v>
+      </c>
+      <c r="H347">
+        <v>823.8</v>
+      </c>
+      <c r="I347">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>1001.4</v>
+      </c>
+      <c r="C348">
+        <v>85.25</v>
+      </c>
+      <c r="D348">
+        <v>977.6</v>
+      </c>
+      <c r="E348">
+        <v>88.07</v>
+      </c>
+      <c r="F348">
+        <v>950.7</v>
+      </c>
+      <c r="G348">
+        <v>87.77</v>
+      </c>
+      <c r="H348">
+        <v>985.5</v>
+      </c>
+      <c r="I348">
+        <v>82.48</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>844.6</v>
+      </c>
+      <c r="C349">
+        <v>84.02</v>
+      </c>
+      <c r="D349">
+        <v>867</v>
+      </c>
+      <c r="E349">
+        <v>89.93</v>
+      </c>
+      <c r="F349">
+        <v>848.4</v>
+      </c>
+      <c r="G349">
+        <v>88.31</v>
+      </c>
+      <c r="H349">
+        <v>898.9</v>
+      </c>
+      <c r="I349">
+        <v>87.39</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>995.3</v>
+      </c>
+      <c r="C350">
+        <v>84.06</v>
+      </c>
+      <c r="D350">
+        <v>962.3</v>
+      </c>
+      <c r="E350">
+        <v>88.57</v>
+      </c>
+      <c r="F350">
+        <v>927.1</v>
+      </c>
+      <c r="G350">
+        <v>87.22</v>
+      </c>
+      <c r="H350">
+        <v>976.5</v>
+      </c>
+      <c r="I350">
+        <v>85.89</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>894.5</v>
+      </c>
+      <c r="C351">
+        <v>83.07</v>
+      </c>
+      <c r="D351">
+        <v>874</v>
+      </c>
+      <c r="E351">
+        <v>89.8</v>
+      </c>
+      <c r="F351">
+        <v>848.5</v>
+      </c>
+      <c r="G351">
+        <v>87.97</v>
+      </c>
+      <c r="H351">
+        <v>900.8</v>
+      </c>
+      <c r="I351">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>982.4</v>
+      </c>
+      <c r="C352">
+        <v>86.91</v>
+      </c>
+      <c r="D352">
+        <v>937.1</v>
+      </c>
+      <c r="E352">
+        <v>86.15</v>
+      </c>
+      <c r="F352">
+        <v>945.3</v>
+      </c>
+      <c r="G352">
+        <v>88.55</v>
+      </c>
+      <c r="H352">
+        <v>963.2</v>
+      </c>
+      <c r="I352">
+        <v>82.06</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>952.8</v>
+      </c>
+      <c r="C353">
+        <v>77.45</v>
+      </c>
+      <c r="D353">
+        <v>938.3</v>
+      </c>
+      <c r="E353">
+        <v>88.66</v>
+      </c>
+      <c r="F353">
+        <v>948.1</v>
+      </c>
+      <c r="G353">
+        <v>83.52</v>
+      </c>
+      <c r="H353">
+        <v>963.1</v>
+      </c>
+      <c r="I353">
+        <v>85.41</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>957.2</v>
+      </c>
+      <c r="C354">
+        <v>77.63</v>
+      </c>
+      <c r="D354">
+        <v>913.5</v>
+      </c>
+      <c r="E354">
+        <v>86.74</v>
+      </c>
+      <c r="F354">
+        <v>901.4</v>
+      </c>
+      <c r="G354">
+        <v>88.28</v>
+      </c>
+      <c r="H354">
+        <v>974.9</v>
+      </c>
+      <c r="I354">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>889.6</v>
+      </c>
+      <c r="C355">
+        <v>84.84</v>
+      </c>
+      <c r="D355">
+        <v>911.2</v>
+      </c>
+      <c r="E355">
+        <v>88.93</v>
+      </c>
+      <c r="F355">
+        <v>897.9</v>
+      </c>
+      <c r="G355">
+        <v>86.23</v>
+      </c>
+      <c r="H355">
+        <v>927.3</v>
+      </c>
+      <c r="I355">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>897</v>
+      </c>
+      <c r="C356">
+        <v>82.83</v>
+      </c>
+      <c r="D356">
+        <v>855.1</v>
+      </c>
+      <c r="E356">
+        <v>89.26</v>
+      </c>
+      <c r="F356">
+        <v>859.1</v>
+      </c>
+      <c r="G356">
+        <v>89.13</v>
+      </c>
+      <c r="H356">
+        <v>884.1</v>
+      </c>
+      <c r="I356">
+        <v>84.48</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>1034.5999999999999</v>
+      </c>
+      <c r="C357">
+        <v>88.01</v>
+      </c>
+      <c r="D357">
+        <v>1011.3</v>
+      </c>
+      <c r="E357">
+        <v>85.35</v>
+      </c>
+      <c r="F357">
+        <v>1037</v>
+      </c>
+      <c r="G357">
+        <v>86.46</v>
+      </c>
+      <c r="H357">
+        <v>1017.2</v>
+      </c>
+      <c r="I357">
+        <v>88.76</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>1001.9</v>
+      </c>
+      <c r="C358">
+        <v>86.45</v>
+      </c>
+      <c r="D358">
+        <v>940.9</v>
+      </c>
+      <c r="E358">
+        <v>86.4</v>
+      </c>
+      <c r="F358">
+        <v>924.8</v>
+      </c>
+      <c r="G358">
+        <v>85.53</v>
+      </c>
+      <c r="H358">
+        <v>990.5</v>
+      </c>
+      <c r="I358">
+        <v>86.82</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>852.9</v>
+      </c>
+      <c r="C359">
+        <v>82.18</v>
+      </c>
+      <c r="D359">
+        <v>822.1</v>
+      </c>
+      <c r="E359">
+        <v>89.23</v>
+      </c>
+      <c r="F359">
+        <v>839.4</v>
+      </c>
+      <c r="G359">
+        <v>88.29</v>
+      </c>
+      <c r="H359">
+        <v>854.8</v>
+      </c>
+      <c r="I359">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>949.4</v>
+      </c>
+      <c r="C360">
+        <v>85.89</v>
+      </c>
+      <c r="D360">
+        <v>917.9</v>
+      </c>
+      <c r="E360">
+        <v>84.69</v>
+      </c>
+      <c r="F360">
+        <v>930.9</v>
+      </c>
+      <c r="G360">
+        <v>87.48</v>
+      </c>
+      <c r="H360">
+        <v>966.5</v>
+      </c>
+      <c r="I360">
+        <v>83.88</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>904.5</v>
+      </c>
+      <c r="C361">
+        <v>80.45</v>
+      </c>
+      <c r="D361">
+        <v>854</v>
+      </c>
+      <c r="E361">
+        <v>89.46</v>
+      </c>
+      <c r="F361">
+        <v>857.2</v>
+      </c>
+      <c r="G361">
+        <v>88.73</v>
+      </c>
+      <c r="H361">
+        <v>923.1</v>
+      </c>
+      <c r="I361">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>930.4</v>
+      </c>
+      <c r="C362">
+        <v>85.13</v>
+      </c>
+      <c r="D362">
+        <v>939.9</v>
+      </c>
+      <c r="E362">
+        <v>85.48</v>
+      </c>
+      <c r="F362">
+        <v>940.2</v>
+      </c>
+      <c r="G362">
+        <v>82.42</v>
+      </c>
+      <c r="H362">
+        <v>930</v>
+      </c>
+      <c r="I362">
+        <v>89.82</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>866.1</v>
+      </c>
+      <c r="C363">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="D363">
+        <v>833.8</v>
+      </c>
+      <c r="E363">
+        <v>87.46</v>
+      </c>
+      <c r="F363">
+        <v>840.2</v>
+      </c>
+      <c r="G363">
+        <v>88.77</v>
+      </c>
+      <c r="H363">
+        <v>855</v>
+      </c>
+      <c r="I363">
+        <v>83.22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>920.6</v>
+      </c>
+      <c r="C364">
+        <v>86.6</v>
+      </c>
+      <c r="D364">
+        <v>840.4</v>
+      </c>
+      <c r="E364">
+        <v>88.3</v>
+      </c>
+      <c r="F364">
+        <v>842.9</v>
+      </c>
+      <c r="G364">
+        <v>87.28</v>
+      </c>
+      <c r="H364">
+        <v>917.2</v>
+      </c>
+      <c r="I364">
+        <v>85.18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>920.3</v>
+      </c>
+      <c r="C365">
+        <v>87.01</v>
+      </c>
+      <c r="D365">
+        <v>890.1</v>
+      </c>
+      <c r="E365">
+        <v>87.17</v>
+      </c>
+      <c r="F365">
+        <v>887.3</v>
+      </c>
+      <c r="G365">
+        <v>88.58</v>
+      </c>
+      <c r="H365">
+        <v>905.4</v>
+      </c>
+      <c r="I365">
+        <v>83.72</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>932.9</v>
+      </c>
+      <c r="C366">
+        <v>87.54</v>
+      </c>
+      <c r="D366">
+        <v>922.8</v>
+      </c>
+      <c r="E366">
+        <v>83.03</v>
+      </c>
+      <c r="F366">
+        <v>909.4</v>
+      </c>
+      <c r="G366">
+        <v>88.3</v>
+      </c>
+      <c r="H366">
+        <v>961.9</v>
+      </c>
+      <c r="I366">
+        <v>84.87</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>826.2</v>
+      </c>
+      <c r="C367">
+        <v>86.95</v>
+      </c>
+      <c r="D367">
+        <v>807.5</v>
+      </c>
+      <c r="E367">
+        <v>85.53</v>
+      </c>
+      <c r="F367">
+        <v>795.8</v>
+      </c>
+      <c r="G367">
+        <v>83.72</v>
+      </c>
+      <c r="H367">
+        <v>824</v>
+      </c>
+      <c r="I367">
+        <v>89.44</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>911.9</v>
+      </c>
+      <c r="C368">
+        <v>78.94</v>
+      </c>
+      <c r="D368">
+        <v>871.2</v>
+      </c>
+      <c r="E368">
+        <v>87.04</v>
+      </c>
+      <c r="F368">
+        <v>875.2</v>
+      </c>
+      <c r="G368">
+        <v>88.76</v>
+      </c>
+      <c r="H368">
+        <v>922.1</v>
+      </c>
+      <c r="I368">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>998.4</v>
+      </c>
+      <c r="C369">
+        <v>84.6</v>
+      </c>
+      <c r="D369">
+        <v>979</v>
+      </c>
+      <c r="E369">
+        <v>89.82</v>
+      </c>
+      <c r="F369">
+        <v>964.4</v>
+      </c>
+      <c r="G369">
+        <v>86.91</v>
+      </c>
+      <c r="H369">
+        <v>969.2</v>
+      </c>
+      <c r="I369">
+        <v>88.94</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>915.9</v>
+      </c>
+      <c r="C370">
+        <v>81.14</v>
+      </c>
+      <c r="D370">
+        <v>858</v>
+      </c>
+      <c r="E370">
+        <v>89.47</v>
+      </c>
+      <c r="F370">
+        <v>847.8</v>
+      </c>
+      <c r="G370">
+        <v>87.57</v>
+      </c>
+      <c r="H370">
+        <v>916.4</v>
+      </c>
+      <c r="I370">
+        <v>83.23</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>954</v>
+      </c>
+      <c r="C371">
+        <v>82.11</v>
+      </c>
+      <c r="D371">
+        <v>908.8</v>
+      </c>
+      <c r="E371">
+        <v>87.6</v>
+      </c>
+      <c r="F371">
+        <v>900</v>
+      </c>
+      <c r="G371">
+        <v>84.58</v>
+      </c>
+      <c r="H371">
+        <v>957</v>
+      </c>
+      <c r="I371">
+        <v>74.67</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>852.8</v>
+      </c>
+      <c r="C372">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="D372">
+        <v>814.9</v>
+      </c>
+      <c r="E372">
+        <v>83.09</v>
+      </c>
+      <c r="F372">
+        <v>794</v>
+      </c>
+      <c r="G372">
+        <v>89.42</v>
+      </c>
+      <c r="H372">
+        <v>849</v>
+      </c>
+      <c r="I372">
+        <v>82.15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>854.9</v>
+      </c>
+      <c r="C373">
+        <v>87.39</v>
+      </c>
+      <c r="D373">
+        <v>813.1</v>
+      </c>
+      <c r="E373">
+        <v>85.84</v>
+      </c>
+      <c r="F373">
+        <v>812.8</v>
+      </c>
+      <c r="G373">
+        <v>87.39</v>
+      </c>
+      <c r="H373">
+        <v>848.6</v>
+      </c>
+      <c r="I373">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>929.2</v>
+      </c>
+      <c r="C374">
+        <v>81.52</v>
+      </c>
+      <c r="D374">
+        <v>888.2</v>
+      </c>
+      <c r="E374">
+        <v>86.97</v>
+      </c>
+      <c r="F374">
+        <v>886.1</v>
+      </c>
+      <c r="G374">
+        <v>85.21</v>
+      </c>
+      <c r="H374">
+        <v>911</v>
+      </c>
+      <c r="I374">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>1014.6</v>
+      </c>
+      <c r="C375">
+        <v>84</v>
+      </c>
+      <c r="D375">
+        <v>944.3</v>
+      </c>
+      <c r="E375">
+        <v>88.66</v>
+      </c>
+      <c r="F375">
+        <v>945.8</v>
+      </c>
+      <c r="G375">
+        <v>86.48</v>
+      </c>
+      <c r="H375">
+        <v>1011.8</v>
+      </c>
+      <c r="I375">
+        <v>87.79</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>947.1</v>
+      </c>
+      <c r="C376">
+        <v>79.11</v>
+      </c>
+      <c r="D376">
+        <v>92.2</v>
+      </c>
+      <c r="E376">
+        <v>85.21</v>
+      </c>
+      <c r="F376">
+        <v>888.9</v>
+      </c>
+      <c r="G376">
+        <v>85.35</v>
+      </c>
+      <c r="H376">
+        <v>914.7</v>
+      </c>
+      <c r="I376">
+        <v>84.86</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>969.7</v>
+      </c>
+      <c r="C377">
+        <v>86.63</v>
+      </c>
+      <c r="D377">
+        <v>905</v>
+      </c>
+      <c r="E377">
+        <v>89.68</v>
+      </c>
+      <c r="F377">
+        <v>890.2</v>
+      </c>
+      <c r="G377">
+        <v>88.91</v>
+      </c>
+      <c r="H377">
+        <v>984.2</v>
+      </c>
+      <c r="I377">
+        <v>83.06</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>857.2</v>
+      </c>
+      <c r="C378">
+        <v>88.8</v>
+      </c>
+      <c r="D378">
+        <v>847.2</v>
+      </c>
+      <c r="E378">
+        <v>84.31</v>
+      </c>
+      <c r="F378">
+        <v>830.9</v>
+      </c>
+      <c r="G378">
+        <v>87.38</v>
+      </c>
+      <c r="H378">
+        <v>831.3</v>
+      </c>
+      <c r="I378">
+        <v>88.55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>852.4</v>
+      </c>
+      <c r="C379">
+        <v>81.5</v>
+      </c>
+      <c r="D379">
+        <v>853</v>
+      </c>
+      <c r="E379">
+        <v>77.89</v>
+      </c>
+      <c r="F379">
+        <v>821.1</v>
+      </c>
+      <c r="G379">
+        <v>84.27</v>
+      </c>
+      <c r="H379">
+        <v>830.4</v>
+      </c>
+      <c r="I379">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>1029.9000000000001</v>
+      </c>
+      <c r="C380">
+        <v>87.61</v>
+      </c>
+      <c r="D380">
+        <v>995.6</v>
+      </c>
+      <c r="E380">
+        <v>86.78</v>
+      </c>
+      <c r="F380">
+        <v>985.9</v>
+      </c>
+      <c r="G380">
+        <v>87.62</v>
+      </c>
+      <c r="H380">
+        <v>997.1</v>
+      </c>
+      <c r="I380">
+        <v>84.19</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>881</v>
+      </c>
+      <c r="C381">
+        <v>80.92</v>
+      </c>
+      <c r="D381">
+        <v>881.1</v>
+      </c>
+      <c r="E381">
+        <v>86.03</v>
+      </c>
+      <c r="F381">
+        <v>838</v>
+      </c>
+      <c r="G381">
+        <v>89.93</v>
+      </c>
+      <c r="H381">
+        <v>910.5</v>
+      </c>
+      <c r="I381">
+        <v>83.69</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>883.9</v>
+      </c>
+      <c r="C382">
+        <v>83.96</v>
+      </c>
+      <c r="D382">
+        <v>846.6</v>
+      </c>
+      <c r="E382">
+        <v>87.9</v>
+      </c>
+      <c r="F382">
+        <v>843.9</v>
+      </c>
+      <c r="G382">
+        <v>85.24</v>
+      </c>
+      <c r="H382">
+        <v>896.4</v>
+      </c>
+      <c r="I382">
+        <v>88.27</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>962</v>
+      </c>
+      <c r="C383">
+        <v>86.3</v>
+      </c>
+      <c r="D383">
+        <v>934.4</v>
+      </c>
+      <c r="E383">
+        <v>85.89</v>
+      </c>
+      <c r="F383">
+        <v>930.6</v>
+      </c>
+      <c r="G383">
+        <v>84.94</v>
+      </c>
+      <c r="H383">
+        <v>938.3</v>
+      </c>
+      <c r="I383">
+        <v>86.95</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>953.7</v>
+      </c>
+      <c r="C384">
+        <v>87.78</v>
+      </c>
+      <c r="D384">
+        <v>872.6</v>
+      </c>
+      <c r="E384">
+        <v>85.6</v>
+      </c>
+      <c r="F384">
+        <v>870.1</v>
+      </c>
+      <c r="G384">
+        <v>89.14</v>
+      </c>
+      <c r="H384">
+        <v>911</v>
+      </c>
+      <c r="I384">
+        <v>82.87</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>907.1</v>
+      </c>
+      <c r="C385">
+        <v>83.92</v>
+      </c>
+      <c r="D385">
+        <v>885.2</v>
+      </c>
+      <c r="E385">
+        <v>88.77</v>
+      </c>
+      <c r="F385">
+        <v>868.3</v>
+      </c>
+      <c r="G385">
+        <v>86.83</v>
+      </c>
+      <c r="H385">
+        <v>901.7</v>
+      </c>
+      <c r="I385">
+        <v>86.44</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>862.4</v>
+      </c>
+      <c r="C386">
+        <v>83.01</v>
+      </c>
+      <c r="D386">
+        <v>812.6</v>
+      </c>
+      <c r="E386">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="F386">
+        <v>835.8</v>
+      </c>
+      <c r="G386">
+        <v>87.46</v>
+      </c>
+      <c r="H386">
+        <v>868.9</v>
+      </c>
+      <c r="I386">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>862</v>
+      </c>
+      <c r="C387">
+        <v>85.21</v>
+      </c>
+      <c r="D387">
+        <v>858.1</v>
+      </c>
+      <c r="E387">
+        <v>89</v>
+      </c>
+      <c r="F387">
+        <v>839.7</v>
+      </c>
+      <c r="G387">
+        <v>87.68</v>
+      </c>
+      <c r="H387">
+        <v>861.1</v>
+      </c>
+      <c r="I387">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>876.3</v>
+      </c>
+      <c r="C388">
+        <v>83.12</v>
+      </c>
+      <c r="D388">
+        <v>847</v>
+      </c>
+      <c r="E388">
+        <v>89.73</v>
+      </c>
+      <c r="F388">
+        <v>823.3</v>
+      </c>
+      <c r="G388">
+        <v>86.8</v>
+      </c>
+      <c r="H388">
+        <v>854.4</v>
+      </c>
+      <c r="I388">
+        <v>88.32</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>898.8</v>
+      </c>
+      <c r="C389">
+        <v>82.46</v>
+      </c>
+      <c r="D389">
+        <v>864</v>
+      </c>
+      <c r="E389">
+        <v>89.47</v>
+      </c>
+      <c r="F389">
+        <v>873.9</v>
+      </c>
+      <c r="G389">
+        <v>86.19</v>
+      </c>
+      <c r="H389">
+        <v>865.9</v>
+      </c>
+      <c r="I389">
+        <v>87.35</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>846.4</v>
+      </c>
+      <c r="C390">
+        <v>85.66</v>
+      </c>
+      <c r="D390">
+        <v>784.4</v>
+      </c>
+      <c r="E390">
+        <v>86.56</v>
+      </c>
+      <c r="F390">
+        <v>806.3</v>
+      </c>
+      <c r="G390">
+        <v>88.51</v>
+      </c>
+      <c r="H390">
+        <v>828.8</v>
+      </c>
+      <c r="I390">
+        <v>83.21</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>955.7</v>
+      </c>
+      <c r="C391">
+        <v>87.78</v>
+      </c>
+      <c r="D391">
+        <v>893.2</v>
+      </c>
+      <c r="E391">
+        <v>84.47</v>
+      </c>
+      <c r="F391">
+        <v>885.3</v>
+      </c>
+      <c r="G391">
+        <v>88.51</v>
+      </c>
+      <c r="H391">
+        <v>949.2</v>
+      </c>
+      <c r="I391">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>904.6</v>
+      </c>
+      <c r="C392">
+        <v>87.91</v>
+      </c>
+      <c r="D392">
+        <v>865.8</v>
+      </c>
+      <c r="E392">
+        <v>82.3</v>
+      </c>
+      <c r="F392">
+        <v>859.7</v>
+      </c>
+      <c r="G392">
+        <v>82.31</v>
+      </c>
+      <c r="H392">
+        <v>899.1</v>
+      </c>
+      <c r="I392">
+        <v>89.24</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>884.8</v>
+      </c>
+      <c r="C393">
+        <v>87.6</v>
+      </c>
+      <c r="D393">
+        <v>854.3</v>
+      </c>
+      <c r="E393">
+        <v>88.39</v>
+      </c>
+      <c r="F393">
+        <v>864.8</v>
+      </c>
+      <c r="G393">
+        <v>86.35</v>
+      </c>
+      <c r="H393">
+        <v>890.3</v>
+      </c>
+      <c r="I393">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>862.2</v>
+      </c>
+      <c r="C394">
+        <v>87.01</v>
+      </c>
+      <c r="D394">
+        <v>812.3</v>
+      </c>
+      <c r="E394">
+        <v>88.38</v>
+      </c>
+      <c r="F394">
+        <v>812.9</v>
+      </c>
+      <c r="G394">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="H394">
+        <v>855.5</v>
+      </c>
+      <c r="I394">
+        <v>85.64</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>844.1</v>
+      </c>
+      <c r="C395">
+        <v>89.19</v>
+      </c>
+      <c r="D395">
+        <v>835.3</v>
+      </c>
+      <c r="E395">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="F395">
+        <v>844.3</v>
+      </c>
+      <c r="G395">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="H395">
+        <v>843.5</v>
+      </c>
+      <c r="I395">
+        <v>83.46</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>891</v>
+      </c>
+      <c r="C396">
+        <v>89.49</v>
+      </c>
+      <c r="D396">
+        <v>841.3</v>
+      </c>
+      <c r="E396">
+        <v>84.2</v>
+      </c>
+      <c r="F396">
+        <v>839</v>
+      </c>
+      <c r="G396">
+        <v>89.8</v>
+      </c>
+      <c r="H396">
+        <v>921.3</v>
+      </c>
+      <c r="I396">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>887.2</v>
+      </c>
+      <c r="C397">
+        <v>88.71</v>
+      </c>
+      <c r="D397">
+        <v>839.1</v>
+      </c>
+      <c r="E397">
+        <v>82.54</v>
+      </c>
+      <c r="F397">
+        <v>851.9</v>
+      </c>
+      <c r="G397">
+        <v>80.81</v>
+      </c>
+      <c r="H397">
+        <v>872</v>
+      </c>
+      <c r="I397">
+        <v>89.74</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>855.6</v>
+      </c>
+      <c r="C398">
+        <v>84.03</v>
+      </c>
+      <c r="D398">
+        <v>832.3</v>
+      </c>
+      <c r="E398">
+        <v>82.96</v>
+      </c>
+      <c r="F398">
+        <v>846.5</v>
+      </c>
+      <c r="G398">
+        <v>79.38</v>
+      </c>
+      <c r="H398">
+        <v>851.5</v>
+      </c>
+      <c r="I398">
+        <v>88.12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>854.1</v>
+      </c>
+      <c r="C399">
+        <v>82.13</v>
+      </c>
+      <c r="D399">
+        <v>823</v>
+      </c>
+      <c r="E399">
+        <v>89.58</v>
+      </c>
+      <c r="F399">
+        <v>812.1</v>
+      </c>
+      <c r="G399">
+        <v>89.29</v>
+      </c>
+      <c r="H399">
+        <v>863.2</v>
+      </c>
+      <c r="I399">
+        <v>85.08</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>875.3</v>
+      </c>
+      <c r="C400">
+        <v>86.86</v>
+      </c>
+      <c r="D400">
+        <v>818.6</v>
+      </c>
+      <c r="E400">
+        <v>85.45</v>
+      </c>
+      <c r="F400">
+        <v>799.2</v>
+      </c>
+      <c r="G400">
+        <v>84.9</v>
+      </c>
+      <c r="H400">
+        <v>871</v>
+      </c>
+      <c r="I400">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>959.6</v>
+      </c>
+      <c r="C401">
+        <v>83.3</v>
+      </c>
+      <c r="D401">
+        <v>917.7</v>
+      </c>
+      <c r="E401">
+        <v>86.5</v>
+      </c>
+      <c r="F401">
+        <v>918.1</v>
+      </c>
+      <c r="G401">
+        <v>87.19</v>
+      </c>
+      <c r="H401">
+        <v>928.6</v>
+      </c>
+      <c r="I401">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>844.6</v>
+      </c>
+      <c r="C402">
+        <v>82.31</v>
+      </c>
+      <c r="D402">
+        <v>837.3</v>
+      </c>
+      <c r="E402">
+        <v>88.43</v>
+      </c>
+      <c r="F402">
+        <v>812.7</v>
+      </c>
+      <c r="G402">
+        <v>83.22</v>
+      </c>
+      <c r="H402">
+        <v>819</v>
+      </c>
+      <c r="I402">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>935</v>
+      </c>
+      <c r="C403">
+        <v>89.75</v>
+      </c>
+      <c r="D403">
+        <v>916.6</v>
+      </c>
+      <c r="E403">
+        <v>82.16</v>
+      </c>
+      <c r="F403">
+        <v>953.3</v>
+      </c>
+      <c r="G403">
+        <v>86.99</v>
+      </c>
+      <c r="H403">
+        <v>922.9</v>
+      </c>
+      <c r="I403">
+        <v>84.09</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>944.9</v>
+      </c>
+      <c r="C404">
+        <v>84.17</v>
+      </c>
+      <c r="D404">
+        <v>960.1</v>
+      </c>
+      <c r="E404">
+        <v>89.05</v>
+      </c>
+      <c r="F404">
+        <v>960.6</v>
+      </c>
+      <c r="G404">
+        <v>86.66</v>
+      </c>
+      <c r="H404">
+        <v>937</v>
+      </c>
+      <c r="I404">
+        <v>87.37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>813.4</v>
+      </c>
+      <c r="C405">
+        <v>86.69</v>
+      </c>
+      <c r="D405">
+        <v>779.9</v>
+      </c>
+      <c r="E405">
+        <v>77.709999999999994</v>
+      </c>
+      <c r="F405">
+        <v>792</v>
+      </c>
+      <c r="G405">
+        <v>83.55</v>
+      </c>
+      <c r="H405">
+        <v>839.6</v>
+      </c>
+      <c r="I405">
+        <v>87.82</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>869</v>
+      </c>
+      <c r="C406">
+        <v>86.11</v>
+      </c>
+      <c r="D406">
+        <v>828.2</v>
+      </c>
+      <c r="E406">
+        <v>80.55</v>
+      </c>
+      <c r="F406">
+        <v>813.7</v>
+      </c>
+      <c r="G406">
+        <v>83.86</v>
+      </c>
+      <c r="H406">
+        <v>893.2</v>
+      </c>
+      <c r="I406">
+        <v>88.78</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>870.5</v>
+      </c>
+      <c r="C407">
+        <v>88.16</v>
+      </c>
+      <c r="D407">
+        <v>770.9</v>
+      </c>
+      <c r="E407">
+        <v>79.91</v>
+      </c>
+      <c r="F407">
+        <v>802.9</v>
+      </c>
+      <c r="G407">
+        <v>87.22</v>
+      </c>
+      <c r="H407">
+        <v>882.4</v>
+      </c>
+      <c r="I407">
+        <v>80.010000000000005</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>813.7</v>
+      </c>
+      <c r="C408">
+        <v>77.36</v>
+      </c>
+      <c r="D408">
+        <v>752.9</v>
+      </c>
+      <c r="E408">
+        <v>87.18</v>
+      </c>
+      <c r="F408">
+        <v>763</v>
+      </c>
+      <c r="G408">
+        <v>89.62</v>
+      </c>
+      <c r="H408">
+        <v>806.9</v>
+      </c>
+      <c r="I408">
+        <v>80.150000000000006</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>943.3</v>
+      </c>
+      <c r="C409">
+        <v>81.96</v>
+      </c>
+      <c r="D409">
+        <v>910.8</v>
+      </c>
+      <c r="E409">
+        <v>86.41</v>
+      </c>
+      <c r="F409">
+        <v>896.3</v>
+      </c>
+      <c r="G409">
+        <v>88.53</v>
+      </c>
+      <c r="H409">
+        <v>906.3</v>
+      </c>
+      <c r="I409">
+        <v>85.13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>781.6</v>
+      </c>
+      <c r="C410">
+        <v>82.57</v>
+      </c>
+      <c r="D410">
+        <v>767</v>
+      </c>
+      <c r="E410">
+        <v>89.78</v>
+      </c>
+      <c r="F410">
+        <v>745</v>
+      </c>
+      <c r="G410">
+        <v>89.38</v>
+      </c>
+      <c r="H410">
+        <v>759.2</v>
+      </c>
+      <c r="I410">
+        <v>83.27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>923.1</v>
+      </c>
+      <c r="C411">
+        <v>86.15</v>
+      </c>
+      <c r="D411">
+        <v>905</v>
+      </c>
+      <c r="E411">
+        <v>89.62</v>
+      </c>
+      <c r="F411">
+        <v>901</v>
+      </c>
+      <c r="G411">
+        <v>89.94</v>
+      </c>
+      <c r="H411">
+        <v>895.3</v>
+      </c>
+      <c r="I411">
+        <v>88.4</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/digits_RP.xlsx
+++ b/raw-data-prep/raw_data/digits_RP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Subno</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>919,1</t>
   </si>
   <si>
     <t>thumbs blocking fingers a little bit</t>
@@ -398,7 +395,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -786,8 +783,8 @@
       <c r="G13">
         <v>87.19</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
+      <c r="H13">
+        <v>919.1</v>
       </c>
       <c r="I13">
         <v>82.87</v>
@@ -3055,7 +3052,7 @@
         <v>82.03</v>
       </c>
       <c r="J91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3261,7 +3258,7 @@
         <v>87.87</v>
       </c>
       <c r="J98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3757,7 +3754,7 @@
         <v>78.25</v>
       </c>
       <c r="J115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3992,7 +3989,7 @@
         <v>84.6</v>
       </c>
       <c r="J123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:10">

--- a/raw-data-prep/raw_data/digits_RP.xlsx
+++ b/raw-data-prep/raw_data/digits_RP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -60,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -215,6 +216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,15 +392,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
@@ -410,7 +412,7 @@
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
@@ -471,7 +473,7 @@
         <v>85.38</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46</v>
       </c>
@@ -500,7 +502,7 @@
         <v>87.61</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>47</v>
       </c>
@@ -529,7 +531,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>48</v>
       </c>
@@ -558,7 +560,7 @@
         <v>87.46</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49</v>
       </c>
@@ -587,7 +589,7 @@
         <v>87.29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -616,7 +618,7 @@
         <v>79.13</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51</v>
       </c>
@@ -645,7 +647,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52</v>
       </c>
@@ -674,7 +676,7 @@
         <v>86.79</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53</v>
       </c>
@@ -703,7 +705,7 @@
         <v>81.23</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>54</v>
       </c>
@@ -732,7 +734,7 @@
         <v>83.79</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>55</v>
       </c>
@@ -761,7 +763,7 @@
         <v>89.02</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>56</v>
       </c>
@@ -790,7 +792,7 @@
         <v>82.87</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
@@ -819,7 +821,7 @@
         <v>89.68</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -848,7 +850,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>59</v>
       </c>
@@ -877,7 +879,7 @@
         <v>89.35</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>60</v>
       </c>
@@ -906,7 +908,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>61</v>
       </c>
@@ -935,7 +937,7 @@
         <v>81.89</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>62</v>
       </c>
@@ -964,7 +966,7 @@
         <v>86.01</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>63</v>
       </c>
@@ -993,7 +995,7 @@
         <v>75.180000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>64</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>82.45</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>65</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>85.68</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>66</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>87.68</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>67</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>89.11</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>68</v>
       </c>
@@ -1138,7 +1140,7 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>69</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>81.02</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>70</v>
       </c>
@@ -1196,7 +1198,7 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>71</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>88.64</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>72</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>89.63</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>73</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>74</v>
       </c>
@@ -1312,7 +1314,7 @@
         <v>89.93</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>76</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>77</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>79.84</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>78</v>
       </c>
@@ -1428,7 +1430,7 @@
         <v>88.75</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>79</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>87.87</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>80</v>
       </c>
@@ -1486,7 +1488,7 @@
         <v>80.81</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>81</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>82</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>87.78</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>83</v>
       </c>
@@ -1573,7 +1575,7 @@
         <v>83.38</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>81.790000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>85</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>85.33</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>86</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>89.38</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>87</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>88.78</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>88</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>86.82</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>89</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>86.47</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>91</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>92</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>86.73</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>93</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>88.04</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>94</v>
       </c>
@@ -1892,7 +1894,7 @@
         <v>78.849999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>95</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>82.81</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>96</v>
       </c>
@@ -1950,7 +1952,7 @@
         <v>79.239999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>97</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>84.71</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>98</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>81.58</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>99</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>85.56</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>100</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>82.44</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>101</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>88.14</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>102</v>
       </c>
@@ -2124,7 +2126,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>103</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>88.52</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>104</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>87.82</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>105</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>106</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>88.98</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>107</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>108</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>87.87</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>109</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>88.96</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>110</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>111</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>85.19</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>112</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>85.08</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>113</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>82.69</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>114</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>87.52</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>115</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>116</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>80.38</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>117</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>84.93</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>118</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>81.819999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>119</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>120</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>87.07</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>121</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>122</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>86.05</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>123</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>87.91</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>124</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>125</v>
       </c>
@@ -2791,7 +2793,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>126</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>127</v>
       </c>
@@ -2849,7 +2851,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>128</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>84.65</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>129</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>84.63</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>130</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>131</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>89.94</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>132</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>133</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>81.13</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>134</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>135</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>82.34</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>136</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>86.39</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>137</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>85.34</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>138</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>139</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>89.11</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>140</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>86.52</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>141</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>142</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>86.62</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>143</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>144</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>145</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>81.069999999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>146</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>88.56</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>147</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>148</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>88.17</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>149</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>150</v>
       </c>
@@ -3522,7 +3524,7 @@
         <v>87.66</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>151</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>86.08</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>152</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>89.88</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>153</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>154</v>
       </c>
@@ -3638,7 +3640,7 @@
         <v>89.61</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>155</v>
       </c>
@@ -3667,7 +3669,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>156</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>157</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>89.35</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>158</v>
       </c>
@@ -3757,7 +3759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>159</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>160</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>82.82</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>161</v>
       </c>
@@ -3844,7 +3846,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>162</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>84.11</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>163</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>84.31</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>164</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>81.63</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>165</v>
       </c>
@@ -3960,7 +3962,7 @@
         <v>85.24</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>166</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>167</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>83.34</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>168</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>169</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>85.49</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>170</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>78.11</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>171</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>89.05</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>172</v>
       </c>
@@ -4166,7 +4168,7 @@
         <v>83.05</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>173</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>86.23</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>174</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>175</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>89.17</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>176</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>83.86</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>177</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>89.26</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>178</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>179</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>180</v>
       </c>
@@ -4398,7 +4400,7 @@
         <v>78.64</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>181</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>86.07</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>182</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>85.93</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>183</v>
       </c>
@@ -4485,7 +4487,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>184</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>86.69</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>185</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>85.42</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>186</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>89.13</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>187</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>83.31</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>188</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>89.27</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>189</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>190</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>82.57</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>191</v>
       </c>
@@ -4717,7 +4719,7 @@
         <v>86.97</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>192</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>84.91</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>193</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>79.59</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>194</v>
       </c>
@@ -4804,7 +4806,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>195</v>
       </c>
@@ -4833,7 +4835,7 @@
         <v>82.67</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>196</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>82.89</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>197</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>198</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>199</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>89.14</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>200</v>
       </c>
@@ -4978,7 +4980,7 @@
         <v>83.16</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>201</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>87.71</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>202</v>
       </c>
@@ -5036,7 +5038,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>203</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>89.04</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>204</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>86.55</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>205</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>206</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>207</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>86.83</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>208</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>87.03</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>209</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>210</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>211</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>88.64</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>212</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>213</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>89.09</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>214</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>215</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>216</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>87.06</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>217</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>83.39</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>218</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>83.43</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>219</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>85.03</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>220</v>
       </c>
@@ -5558,7 +5560,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>221</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>222</v>
       </c>
@@ -5616,7 +5618,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>223</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>85.02</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>224</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>87.96</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>225</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>82.66</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>226</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>227</v>
       </c>
@@ -5761,7 +5763,7 @@
         <v>85.94</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>228</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>85.38</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>229</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>79.28</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>230</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>82.45</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>231</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>86.21</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>232</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>82.94</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>233</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>86.71</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>234</v>
       </c>
@@ -5964,7 +5966,7 @@
         <v>83.86</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>235</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>88.61</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>236</v>
       </c>
@@ -6022,7 +6024,7 @@
         <v>85.54</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>237</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>82.19</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>238</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>87.84</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>239</v>
       </c>
@@ -6109,7 +6111,7 @@
         <v>84.81</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>240</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>241</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>89.68</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>242</v>
       </c>
@@ -6196,7 +6198,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>243</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>78.03</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>244</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>84.95</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>245</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>83.47</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>246</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>247</v>
       </c>
@@ -6341,7 +6343,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>248</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>249</v>
       </c>
@@ -6399,7 +6401,7 @@
         <v>82.49</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>250</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>251</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>252</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>81.760000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>253</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>254</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>88.37</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>255</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>256</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>257</v>
       </c>
@@ -6631,7 +6633,7 @@
         <v>87.49</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>258</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>259</v>
       </c>
@@ -6689,7 +6691,7 @@
         <v>87.91</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>260</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>261</v>
       </c>
@@ -6747,7 +6749,7 @@
         <v>88.83</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>262</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>89.94</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>263</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>88.59</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>264</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>85.96</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>265</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>88.97</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>266</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>267</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>85.95</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>268</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>269</v>
       </c>
@@ -6979,7 +6981,7 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>270</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>88.49</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>271</v>
       </c>
@@ -7037,7 +7039,7 @@
         <v>78.180000000000007</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>272</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>85.19</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>273</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>274</v>
       </c>
@@ -7124,7 +7126,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>275</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>83.13</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>276</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>89.39</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>277</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>83.42</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>278</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>89.59</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>279</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>80.28</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>280</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>84.81</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>281</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>77.680000000000007</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>282</v>
       </c>
@@ -7356,7 +7358,7 @@
         <v>89.03</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>283</v>
       </c>
@@ -7385,7 +7387,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>284</v>
       </c>
@@ -7414,7 +7416,7 @@
         <v>81.459999999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>285</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>80.709999999999994</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>286</v>
       </c>
@@ -7472,7 +7474,7 @@
         <v>84.89</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>287</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>85.66</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>288</v>
       </c>
@@ -7530,7 +7532,7 @@
         <v>89.69</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>289</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>84.54</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>290</v>
       </c>
@@ -7588,7 +7590,7 @@
         <v>86.26</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>291</v>
       </c>
@@ -7617,7 +7619,7 @@
         <v>86.76</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>292</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>89.18</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>293</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>294</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>88.02</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>295</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>296</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>297</v>
       </c>
@@ -7791,7 +7793,7 @@
         <v>86.42</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>298</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>299</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>85.36</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>300</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>82.18</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>301</v>
       </c>
@@ -7907,7 +7909,7 @@
         <v>86.32</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>302</v>
       </c>
@@ -7936,7 +7938,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>303</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>89.41</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>304</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>84.12</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>305</v>
       </c>
@@ -8023,7 +8025,7 @@
         <v>86.75</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>306</v>
       </c>
@@ -8052,7 +8054,7 @@
         <v>86.67</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>307</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>81.45</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>308</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>87.48</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>309</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>83.46</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>310</v>
       </c>
@@ -8168,7 +8170,7 @@
         <v>83.01</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>311</v>
       </c>
@@ -8197,7 +8199,7 @@
         <v>81.92</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>312</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>78.739999999999995</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>313</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>82.79</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>314</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>315</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>316</v>
       </c>
@@ -8342,7 +8344,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>317</v>
       </c>
@@ -8371,7 +8373,7 @@
         <v>81.540000000000006</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>318</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>82.53</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>319</v>
       </c>
@@ -8429,7 +8431,7 @@
         <v>84.42</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>320</v>
       </c>
@@ -8458,7 +8460,7 @@
         <v>88.03</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>321</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>322</v>
       </c>
@@ -8516,7 +8518,7 @@
         <v>87.69</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>323</v>
       </c>
@@ -8545,7 +8547,7 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>324</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>325</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>88.84</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>326</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>327</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>89.35</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>328</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>329</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>330</v>
       </c>
@@ -8748,7 +8750,7 @@
         <v>89.03</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>331</v>
       </c>
@@ -8777,7 +8779,7 @@
         <v>87.16</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>332</v>
       </c>
@@ -8806,7 +8808,7 @@
         <v>80.73</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>333</v>
       </c>
@@ -8835,7 +8837,7 @@
         <v>80.040000000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>334</v>
       </c>
@@ -8864,7 +8866,7 @@
         <v>80.319999999999993</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>335</v>
       </c>
@@ -8893,7 +8895,7 @@
         <v>86.49</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>336</v>
       </c>
@@ -8922,7 +8924,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>337</v>
       </c>
@@ -8951,7 +8953,7 @@
         <v>83.93</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>338</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>339</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>340</v>
       </c>
@@ -9038,7 +9040,7 @@
         <v>83.84</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>341</v>
       </c>
@@ -9067,7 +9069,7 @@
         <v>80.12</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>342</v>
       </c>
@@ -9096,7 +9098,7 @@
         <v>89.63</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>343</v>
       </c>
@@ -9125,7 +9127,7 @@
         <v>86.38</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>344</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>88.91</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>345</v>
       </c>
@@ -9183,7 +9185,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>346</v>
       </c>
@@ -9212,7 +9214,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>347</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>82.48</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>348</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>87.39</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>349</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>85.89</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>350</v>
       </c>
@@ -9328,7 +9330,7 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>351</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>82.06</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>352</v>
       </c>
@@ -9386,7 +9388,7 @@
         <v>85.41</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>353</v>
       </c>
@@ -9415,7 +9417,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>354</v>
       </c>
@@ -9444,7 +9446,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>355</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>84.48</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>356</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>88.76</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>357</v>
       </c>
@@ -9531,7 +9533,7 @@
         <v>86.82</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>358</v>
       </c>
@@ -9560,7 +9562,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>359</v>
       </c>
@@ -9589,7 +9591,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>360</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>83.97</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>361</v>
       </c>
@@ -9647,7 +9649,7 @@
         <v>89.82</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>362</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>83.22</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>363</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>85.18</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>364</v>
       </c>
@@ -9734,7 +9736,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>365</v>
       </c>
@@ -9763,7 +9765,7 @@
         <v>84.87</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>366</v>
       </c>
@@ -9792,7 +9794,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>367</v>
       </c>
@@ -9821,7 +9823,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>368</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>88.94</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>369</v>
       </c>
@@ -9879,7 +9881,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>370</v>
       </c>
@@ -9908,7 +9910,7 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>371</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>372</v>
       </c>
@@ -9966,7 +9968,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>373</v>
       </c>
@@ -9995,7 +9997,7 @@
         <v>79.25</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>374</v>
       </c>
@@ -10024,7 +10026,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>375</v>
       </c>
@@ -10053,7 +10055,7 @@
         <v>84.86</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>376</v>
       </c>
@@ -10082,7 +10084,7 @@
         <v>83.06</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>377</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>88.55</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>378</v>
       </c>
@@ -10140,7 +10142,7 @@
         <v>84.82</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>379</v>
       </c>
@@ -10169,7 +10171,7 @@
         <v>84.19</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>380</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>83.69</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>381</v>
       </c>
@@ -10227,7 +10229,7 @@
         <v>88.27</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>382</v>
       </c>
@@ -10256,7 +10258,7 @@
         <v>86.95</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>383</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>82.87</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>384</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>86.44</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>385</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>386</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>387</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>388</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>87.35</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>389</v>
       </c>
@@ -10459,7 +10461,7 @@
         <v>83.21</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>390</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>391</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>89.24</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>392</v>
       </c>
@@ -10546,7 +10548,7 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>393</v>
       </c>
@@ -10575,7 +10577,7 @@
         <v>85.64</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>394</v>
       </c>
@@ -10604,7 +10606,7 @@
         <v>83.46</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>395</v>
       </c>
@@ -10633,7 +10635,7 @@
         <v>88.45</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>396</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>89.74</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>397</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>88.12</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>398</v>
       </c>
@@ -10720,7 +10722,7 @@
         <v>85.08</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>399</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>400</v>
       </c>
@@ -10778,7 +10780,7 @@
         <v>85.74</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>401</v>
       </c>
@@ -10807,7 +10809,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>402</v>
       </c>
@@ -10836,7 +10838,7 @@
         <v>84.09</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>403</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>87.37</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>404</v>
       </c>
@@ -10894,7 +10896,7 @@
         <v>87.82</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>405</v>
       </c>
@@ -10923,7 +10925,7 @@
         <v>88.78</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>406</v>
       </c>
@@ -10952,7 +10954,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>407</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>408</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>85.13</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>409</v>
       </c>
@@ -11039,7 +11041,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>410</v>
       </c>
@@ -11066,6 +11068,412 @@
       </c>
       <c r="I367">
         <v>88.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>411</v>
+      </c>
+      <c r="B368">
+        <v>949.3</v>
+      </c>
+      <c r="C368">
+        <v>83.41</v>
+      </c>
+      <c r="D368">
+        <v>882.4</v>
+      </c>
+      <c r="E368">
+        <v>88.83</v>
+      </c>
+      <c r="F368">
+        <v>902.5</v>
+      </c>
+      <c r="G368">
+        <v>88.16</v>
+      </c>
+      <c r="H368">
+        <v>926.9</v>
+      </c>
+      <c r="I368">
+        <v>80.06</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>412</v>
+      </c>
+      <c r="B369">
+        <v>872.1</v>
+      </c>
+      <c r="C369">
+        <v>83.81</v>
+      </c>
+      <c r="D369">
+        <v>828.7</v>
+      </c>
+      <c r="E369">
+        <v>86.33</v>
+      </c>
+      <c r="F369">
+        <v>815.2</v>
+      </c>
+      <c r="G369">
+        <v>84.16</v>
+      </c>
+      <c r="H369">
+        <v>873.7</v>
+      </c>
+      <c r="I369">
+        <v>82.37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>413</v>
+      </c>
+      <c r="B370">
+        <v>941.4</v>
+      </c>
+      <c r="C370">
+        <v>81.88</v>
+      </c>
+      <c r="D370">
+        <v>915.1</v>
+      </c>
+      <c r="E370">
+        <v>89.12</v>
+      </c>
+      <c r="F370">
+        <v>959.8</v>
+      </c>
+      <c r="G370">
+        <v>86.48</v>
+      </c>
+      <c r="H370">
+        <v>977</v>
+      </c>
+      <c r="I370">
+        <v>85.48</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>414</v>
+      </c>
+      <c r="B371">
+        <v>872.3</v>
+      </c>
+      <c r="C371">
+        <v>86.85</v>
+      </c>
+      <c r="D371">
+        <v>845.4</v>
+      </c>
+      <c r="E371">
+        <v>85.66</v>
+      </c>
+      <c r="F371">
+        <v>843.9</v>
+      </c>
+      <c r="G371">
+        <v>87.28</v>
+      </c>
+      <c r="H371">
+        <v>867.2</v>
+      </c>
+      <c r="I371">
+        <v>86.96</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>415</v>
+      </c>
+      <c r="B372">
+        <v>843.3</v>
+      </c>
+      <c r="C372">
+        <v>81.96</v>
+      </c>
+      <c r="D372">
+        <v>816.4</v>
+      </c>
+      <c r="E372">
+        <v>88.18</v>
+      </c>
+      <c r="F372">
+        <v>799.1</v>
+      </c>
+      <c r="G372">
+        <v>85.84</v>
+      </c>
+      <c r="H372">
+        <v>826.7</v>
+      </c>
+      <c r="I372">
+        <v>86.32</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>416</v>
+      </c>
+      <c r="B373">
+        <v>842</v>
+      </c>
+      <c r="C373">
+        <v>89.86</v>
+      </c>
+      <c r="D373">
+        <v>833.4</v>
+      </c>
+      <c r="E373">
+        <v>84.84</v>
+      </c>
+      <c r="F373">
+        <v>839</v>
+      </c>
+      <c r="G373">
+        <v>89.73</v>
+      </c>
+      <c r="H373">
+        <v>831.4</v>
+      </c>
+      <c r="I373">
+        <v>82.88</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>417</v>
+      </c>
+      <c r="B374">
+        <v>981.7</v>
+      </c>
+      <c r="C374">
+        <v>87.78</v>
+      </c>
+      <c r="D374">
+        <v>945.7</v>
+      </c>
+      <c r="E374">
+        <v>75.61</v>
+      </c>
+      <c r="F374">
+        <v>938</v>
+      </c>
+      <c r="G374">
+        <v>84.06</v>
+      </c>
+      <c r="H374">
+        <v>972.6</v>
+      </c>
+      <c r="I374">
+        <v>84.45</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>418</v>
+      </c>
+      <c r="B375">
+        <v>987.5</v>
+      </c>
+      <c r="C375">
+        <v>88.26</v>
+      </c>
+      <c r="D375">
+        <v>910.6</v>
+      </c>
+      <c r="E375">
+        <v>87.99</v>
+      </c>
+      <c r="F375">
+        <v>912.5</v>
+      </c>
+      <c r="G375">
+        <v>88.05</v>
+      </c>
+      <c r="H375">
+        <v>961.1</v>
+      </c>
+      <c r="I375">
+        <v>84.69</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>419</v>
+      </c>
+      <c r="B376">
+        <v>983.1</v>
+      </c>
+      <c r="C376">
+        <v>87.32</v>
+      </c>
+      <c r="D376">
+        <v>906.1</v>
+      </c>
+      <c r="E376">
+        <v>83.35</v>
+      </c>
+      <c r="F376">
+        <v>911.2</v>
+      </c>
+      <c r="G376">
+        <v>88.81</v>
+      </c>
+      <c r="H376">
+        <v>993.4</v>
+      </c>
+      <c r="I376">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>420</v>
+      </c>
+      <c r="B377">
+        <v>968.6</v>
+      </c>
+      <c r="C377">
+        <v>83.84</v>
+      </c>
+      <c r="D377">
+        <v>926.8</v>
+      </c>
+      <c r="E377">
+        <v>85.54</v>
+      </c>
+      <c r="F377">
+        <v>906.3</v>
+      </c>
+      <c r="G377">
+        <v>83.22</v>
+      </c>
+      <c r="H377">
+        <v>964.1</v>
+      </c>
+      <c r="I377">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>421</v>
+      </c>
+      <c r="B378">
+        <v>895.2</v>
+      </c>
+      <c r="C378">
+        <v>80.55</v>
+      </c>
+      <c r="D378">
+        <v>841</v>
+      </c>
+      <c r="E378">
+        <v>89.59</v>
+      </c>
+      <c r="F378">
+        <v>846.9</v>
+      </c>
+      <c r="G378">
+        <v>87.43</v>
+      </c>
+      <c r="H378">
+        <v>883</v>
+      </c>
+      <c r="I378">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>422</v>
+      </c>
+      <c r="B379">
+        <v>835.7</v>
+      </c>
+      <c r="C379">
+        <v>86.3</v>
+      </c>
+      <c r="D379">
+        <v>833.9</v>
+      </c>
+      <c r="E379">
+        <v>87.39</v>
+      </c>
+      <c r="F379">
+        <v>832.4</v>
+      </c>
+      <c r="G379">
+        <v>88.21</v>
+      </c>
+      <c r="H379">
+        <v>848.1</v>
+      </c>
+      <c r="I379">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>423</v>
+      </c>
+      <c r="B380">
+        <v>924.5</v>
+      </c>
+      <c r="C380">
+        <v>82.23</v>
+      </c>
+      <c r="D380">
+        <v>919.7</v>
+      </c>
+      <c r="E380">
+        <v>86.51</v>
+      </c>
+      <c r="F380">
+        <v>878.8</v>
+      </c>
+      <c r="G380">
+        <v>85.43</v>
+      </c>
+      <c r="H380">
+        <v>912.3</v>
+      </c>
+      <c r="I380">
+        <v>81.36</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>424</v>
+      </c>
+      <c r="B381">
+        <v>940.4</v>
+      </c>
+      <c r="C381">
+        <v>80.33</v>
+      </c>
+      <c r="D381">
+        <v>894.9</v>
+      </c>
+      <c r="E381">
+        <v>87.44</v>
+      </c>
+      <c r="F381">
+        <v>861.3</v>
+      </c>
+      <c r="G381">
+        <v>88.4</v>
+      </c>
+      <c r="H381">
+        <v>915.8</v>
+      </c>
+      <c r="I381">
+        <v>85.55</v>
       </c>
     </row>
   </sheetData>
@@ -11074,24 +11482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/digits_RP.xlsx
+++ b/raw-data-prep/raw_data/digits_RP.xlsx
@@ -17,9 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Subno</t>
-  </si>
   <si>
     <t>L_ring_length</t>
   </si>
@@ -45,9 +42,6 @@
     <t>R_ring_angle</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>thumbs blocking fingers a little bit</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>Fingers are bent, weirdest hands I've ever seen</t>
+  </si>
+  <si>
+    <t>Notes_t</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -396,8 +396,8 @@
   <dimension ref="A1:J381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B382" sqref="B382"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,34 +414,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>82.03</v>
       </c>
       <c r="J91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>87.87</v>
       </c>
       <c r="J98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>78.25</v>
       </c>
       <c r="J115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>84.6</v>
       </c>
       <c r="J123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">

--- a/raw-data-prep/raw_data/digits_RP.xlsx
+++ b/raw-data-prep/raw_data/digits_RP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$381</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,6 +104,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -149,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,11 +399,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
@@ -473,7 +480,7 @@
         <v>85.38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46</v>
       </c>
@@ -502,7 +509,7 @@
         <v>87.61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>47</v>
       </c>
@@ -531,7 +538,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>48</v>
       </c>
@@ -560,7 +567,7 @@
         <v>87.46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49</v>
       </c>
@@ -589,7 +596,7 @@
         <v>87.29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -618,7 +625,7 @@
         <v>79.13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51</v>
       </c>
@@ -647,7 +654,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52</v>
       </c>
@@ -676,7 +683,7 @@
         <v>86.79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53</v>
       </c>
@@ -705,7 +712,7 @@
         <v>81.23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>54</v>
       </c>
@@ -734,7 +741,7 @@
         <v>83.79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>55</v>
       </c>
@@ -763,7 +770,7 @@
         <v>89.02</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>56</v>
       </c>
@@ -792,7 +799,7 @@
         <v>82.87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
@@ -821,7 +828,7 @@
         <v>89.68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -850,7 +857,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>59</v>
       </c>
@@ -879,7 +886,7 @@
         <v>89.35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>60</v>
       </c>
@@ -908,7 +915,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>61</v>
       </c>
@@ -937,7 +944,7 @@
         <v>81.89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>62</v>
       </c>
@@ -966,7 +973,7 @@
         <v>86.01</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>63</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>75.180000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>64</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>82.45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>65</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>85.68</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>66</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>87.68</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>67</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>89.11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>68</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>69</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>81.02</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>70</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>71</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>88.64</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>72</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>89.63</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>73</v>
       </c>
@@ -1285,7 +1292,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>74</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>89.93</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>76</v>
       </c>
@@ -1372,7 +1379,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>77</v>
       </c>
@@ -1382,9 +1389,6 @@
       <c r="C34">
         <v>84.26</v>
       </c>
-      <c r="D34">
-        <v>88.6</v>
-      </c>
       <c r="E34">
         <v>86.52</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>79.84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>78</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>88.75</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>79</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>87.87</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>80</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>80.81</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>81</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>82</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>87.78</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>83</v>
       </c>
@@ -1591,20 +1595,14 @@
       <c r="E41">
         <v>84.18</v>
       </c>
-      <c r="F41">
-        <v>955</v>
-      </c>
       <c r="G41">
         <v>84.11</v>
       </c>
-      <c r="H41">
-        <v>686</v>
-      </c>
       <c r="I41">
         <v>81.790000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>85</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>85.33</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>86</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>89.38</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>87</v>
       </c>
@@ -1691,7 +1689,7 @@
         <v>88.78</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>88</v>
       </c>
@@ -1720,7 +1718,7 @@
         <v>86.82</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>89</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>86.47</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90</v>
       </c>
@@ -1778,7 +1776,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>91</v>
       </c>
@@ -1807,7 +1805,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>92</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>86.73</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>93</v>
       </c>
@@ -1865,7 +1863,7 @@
         <v>88.04</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>94</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>78.849999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>95</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>82.81</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>96</v>
       </c>
@@ -1952,7 +1950,7 @@
         <v>79.239999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>97</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>84.71</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>98</v>
       </c>
@@ -2010,7 +2008,7 @@
         <v>81.58</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>99</v>
       </c>
@@ -2039,7 +2037,7 @@
         <v>85.56</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>100</v>
       </c>
@@ -2068,7 +2066,7 @@
         <v>82.44</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>101</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>88.14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>102</v>
       </c>
@@ -2126,7 +2124,7 @@
         <v>80.33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>103</v>
       </c>
@@ -2155,7 +2153,7 @@
         <v>88.52</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>104</v>
       </c>
@@ -2184,7 +2182,7 @@
         <v>87.82</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>105</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>106</v>
       </c>
@@ -2242,7 +2240,7 @@
         <v>88.98</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>107</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>108</v>
       </c>
@@ -2300,7 +2298,7 @@
         <v>87.87</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>109</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>88.96</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>110</v>
       </c>
@@ -2358,7 +2356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>111</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>85.19</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>112</v>
       </c>
@@ -2416,7 +2414,7 @@
         <v>85.08</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>113</v>
       </c>
@@ -2445,7 +2443,7 @@
         <v>82.69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>114</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>87.52</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>115</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>116</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>80.38</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>117</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>84.93</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>118</v>
       </c>
@@ -2590,7 +2588,7 @@
         <v>81.819999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>119</v>
       </c>
@@ -2619,7 +2617,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>120</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>87.07</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>121</v>
       </c>
@@ -2677,7 +2675,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>122</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>86.05</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>123</v>
       </c>
@@ -2735,7 +2733,7 @@
         <v>87.91</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>124</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>125</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>126</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>127</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>128</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>84.65</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>129</v>
       </c>
@@ -2909,7 +2907,7 @@
         <v>84.63</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>130</v>
       </c>
@@ -2938,7 +2936,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>131</v>
       </c>
@@ -2967,7 +2965,7 @@
         <v>89.94</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>132</v>
       </c>
@@ -2996,7 +2994,7 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>133</v>
       </c>
@@ -3025,7 +3023,7 @@
         <v>81.13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>134</v>
       </c>
@@ -3057,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>135</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>82.34</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>136</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>86.39</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>137</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>85.34</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>138</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>139</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>89.11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>140</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>86.52</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>141</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>142</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>86.62</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>143</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>144</v>
       </c>
@@ -3350,7 +3348,7 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>145</v>
       </c>
@@ -3379,7 +3377,7 @@
         <v>81.069999999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>146</v>
       </c>
@@ -3408,7 +3406,7 @@
         <v>88.56</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>147</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>148</v>
       </c>
@@ -3453,9 +3451,6 @@
       <c r="E105">
         <v>76.08</v>
       </c>
-      <c r="F105">
-        <v>88.7</v>
-      </c>
       <c r="G105">
         <v>79.56</v>
       </c>
@@ -3466,7 +3461,7 @@
         <v>88.17</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>149</v>
       </c>
@@ -3495,7 +3490,7 @@
         <v>81.96</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>150</v>
       </c>
@@ -3524,7 +3519,7 @@
         <v>87.66</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>151</v>
       </c>
@@ -3553,7 +3548,7 @@
         <v>86.08</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>152</v>
       </c>
@@ -3582,7 +3577,7 @@
         <v>89.88</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>153</v>
       </c>
@@ -3611,7 +3606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>154</v>
       </c>
@@ -3640,7 +3635,7 @@
         <v>89.61</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>155</v>
       </c>
@@ -3669,7 +3664,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>156</v>
       </c>
@@ -3698,7 +3693,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>157</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>89.35</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>158</v>
       </c>
@@ -3759,7 +3754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>159</v>
       </c>
@@ -3788,7 +3783,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>160</v>
       </c>
@@ -3817,7 +3812,7 @@
         <v>82.82</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>161</v>
       </c>
@@ -3846,7 +3841,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>162</v>
       </c>
@@ -3875,7 +3870,7 @@
         <v>84.11</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>163</v>
       </c>
@@ -3904,7 +3899,7 @@
         <v>84.31</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>164</v>
       </c>
@@ -3933,7 +3928,7 @@
         <v>81.63</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>165</v>
       </c>
@@ -3962,7 +3957,7 @@
         <v>85.24</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>166</v>
       </c>
@@ -3994,7 +3989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>167</v>
       </c>
@@ -4023,7 +4018,7 @@
         <v>83.34</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>168</v>
       </c>
@@ -4052,7 +4047,7 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>169</v>
       </c>
@@ -4081,7 +4076,7 @@
         <v>85.49</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>170</v>
       </c>
@@ -4110,7 +4105,7 @@
         <v>78.11</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>171</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>89.05</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>172</v>
       </c>
@@ -4168,7 +4163,7 @@
         <v>83.05</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>173</v>
       </c>
@@ -4197,7 +4192,7 @@
         <v>86.23</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>174</v>
       </c>
@@ -4226,7 +4221,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>175</v>
       </c>
@@ -4255,7 +4250,7 @@
         <v>89.17</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>176</v>
       </c>
@@ -4284,7 +4279,7 @@
         <v>83.86</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>177</v>
       </c>
@@ -4313,7 +4308,7 @@
         <v>89.26</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>178</v>
       </c>
@@ -4342,7 +4337,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>179</v>
       </c>
@@ -4371,7 +4366,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>180</v>
       </c>
@@ -4400,7 +4395,7 @@
         <v>78.64</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>181</v>
       </c>
@@ -4429,7 +4424,7 @@
         <v>86.07</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>182</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>85.93</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>183</v>
       </c>
@@ -4516,7 +4511,7 @@
         <v>86.69</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>185</v>
       </c>
@@ -4545,7 +4540,7 @@
         <v>85.42</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>186</v>
       </c>
@@ -4574,7 +4569,7 @@
         <v>89.13</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>187</v>
       </c>
@@ -4603,7 +4598,7 @@
         <v>83.31</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>188</v>
       </c>
@@ -4632,7 +4627,7 @@
         <v>89.27</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>189</v>
       </c>
@@ -4661,7 +4656,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>190</v>
       </c>
@@ -4690,7 +4685,7 @@
         <v>82.57</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>191</v>
       </c>
@@ -4719,7 +4714,7 @@
         <v>86.97</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>192</v>
       </c>
@@ -4748,7 +4743,7 @@
         <v>84.91</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>193</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>79.59</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>194</v>
       </c>
@@ -4806,7 +4801,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>195</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>82.67</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>196</v>
       </c>
@@ -4864,7 +4859,7 @@
         <v>82.89</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>197</v>
       </c>
@@ -4893,7 +4888,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>198</v>
       </c>
@@ -4922,7 +4917,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>199</v>
       </c>
@@ -4951,7 +4946,7 @@
         <v>89.14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>200</v>
       </c>
@@ -4980,7 +4975,7 @@
         <v>83.16</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>201</v>
       </c>
@@ -5009,7 +5004,7 @@
         <v>87.71</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>202</v>
       </c>
@@ -5038,7 +5033,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>203</v>
       </c>
@@ -5067,7 +5062,7 @@
         <v>89.04</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>204</v>
       </c>
@@ -5096,7 +5091,7 @@
         <v>86.55</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>205</v>
       </c>
@@ -5125,7 +5120,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>206</v>
       </c>
@@ -5154,7 +5149,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>207</v>
       </c>
@@ -5183,7 +5178,7 @@
         <v>86.83</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>208</v>
       </c>
@@ -5212,7 +5207,7 @@
         <v>87.03</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>209</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>210</v>
       </c>
@@ -5270,7 +5265,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>211</v>
       </c>
@@ -5299,7 +5294,7 @@
         <v>88.64</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>212</v>
       </c>
@@ -5328,7 +5323,7 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>213</v>
       </c>
@@ -5357,7 +5352,7 @@
         <v>89.09</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>214</v>
       </c>
@@ -5386,7 +5381,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>215</v>
       </c>
@@ -5415,7 +5410,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>216</v>
       </c>
@@ -5444,7 +5439,7 @@
         <v>87.06</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>217</v>
       </c>
@@ -5473,7 +5468,7 @@
         <v>83.39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>218</v>
       </c>
@@ -5502,7 +5497,7 @@
         <v>83.43</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>219</v>
       </c>
@@ -5531,7 +5526,7 @@
         <v>85.03</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>220</v>
       </c>
@@ -5560,7 +5555,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>221</v>
       </c>
@@ -5589,7 +5584,7 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>222</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>223</v>
       </c>
@@ -5647,7 +5642,7 @@
         <v>85.02</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>224</v>
       </c>
@@ -5676,7 +5671,7 @@
         <v>87.96</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>225</v>
       </c>
@@ -5705,7 +5700,7 @@
         <v>82.66</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>226</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>227</v>
       </c>
@@ -5763,7 +5758,7 @@
         <v>85.94</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>228</v>
       </c>
@@ -5792,7 +5787,7 @@
         <v>85.38</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>229</v>
       </c>
@@ -5821,7 +5816,7 @@
         <v>79.28</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>230</v>
       </c>
@@ -5850,7 +5845,7 @@
         <v>82.45</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>231</v>
       </c>
@@ -5879,7 +5874,7 @@
         <v>86.21</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>232</v>
       </c>
@@ -5908,7 +5903,7 @@
         <v>82.94</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>233</v>
       </c>
@@ -5937,7 +5932,7 @@
         <v>86.71</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>234</v>
       </c>
@@ -5966,7 +5961,7 @@
         <v>83.86</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>235</v>
       </c>
@@ -5995,7 +5990,7 @@
         <v>88.61</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>236</v>
       </c>
@@ -6024,7 +6019,7 @@
         <v>85.54</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>237</v>
       </c>
@@ -6053,7 +6048,7 @@
         <v>82.19</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>238</v>
       </c>
@@ -6082,7 +6077,7 @@
         <v>87.84</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>239</v>
       </c>
@@ -6111,7 +6106,7 @@
         <v>84.81</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>240</v>
       </c>
@@ -6140,7 +6135,7 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>241</v>
       </c>
@@ -6169,7 +6164,7 @@
         <v>89.68</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>242</v>
       </c>
@@ -6198,7 +6193,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>243</v>
       </c>
@@ -6227,7 +6222,7 @@
         <v>78.03</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>244</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>84.95</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>245</v>
       </c>
@@ -6285,7 +6280,7 @@
         <v>83.47</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>246</v>
       </c>
@@ -6314,7 +6309,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>247</v>
       </c>
@@ -6343,7 +6338,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>248</v>
       </c>
@@ -6372,7 +6367,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>249</v>
       </c>
@@ -6401,7 +6396,7 @@
         <v>82.49</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>250</v>
       </c>
@@ -6430,7 +6425,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>251</v>
       </c>
@@ -6459,7 +6454,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>252</v>
       </c>
@@ -6488,7 +6483,7 @@
         <v>81.760000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>253</v>
       </c>
@@ -6517,7 +6512,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>254</v>
       </c>
@@ -6546,7 +6541,7 @@
         <v>88.37</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>255</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>256</v>
       </c>
@@ -6604,7 +6599,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>257</v>
       </c>
@@ -6633,7 +6628,7 @@
         <v>87.49</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>258</v>
       </c>
@@ -6662,7 +6657,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>259</v>
       </c>
@@ -6691,7 +6686,7 @@
         <v>87.91</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>260</v>
       </c>
@@ -6720,7 +6715,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>261</v>
       </c>
@@ -6749,7 +6744,7 @@
         <v>88.83</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>262</v>
       </c>
@@ -6778,7 +6773,7 @@
         <v>89.94</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>263</v>
       </c>
@@ -6807,7 +6802,7 @@
         <v>88.59</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>264</v>
       </c>
@@ -6836,7 +6831,7 @@
         <v>85.96</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>265</v>
       </c>
@@ -6865,7 +6860,7 @@
         <v>88.97</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>266</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>267</v>
       </c>
@@ -6923,7 +6918,7 @@
         <v>85.95</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>268</v>
       </c>
@@ -6952,7 +6947,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>269</v>
       </c>
@@ -6981,7 +6976,7 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>270</v>
       </c>
@@ -7010,7 +7005,7 @@
         <v>88.49</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>271</v>
       </c>
@@ -7039,7 +7034,7 @@
         <v>78.180000000000007</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>272</v>
       </c>
@@ -7068,7 +7063,7 @@
         <v>85.19</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>273</v>
       </c>
@@ -7097,7 +7092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>274</v>
       </c>
@@ -7126,7 +7121,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>275</v>
       </c>
@@ -7155,7 +7150,7 @@
         <v>83.13</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>276</v>
       </c>
@@ -7184,7 +7179,7 @@
         <v>89.39</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>277</v>
       </c>
@@ -7213,7 +7208,7 @@
         <v>83.42</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>278</v>
       </c>
@@ -7242,7 +7237,7 @@
         <v>89.59</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>279</v>
       </c>
@@ -7271,7 +7266,7 @@
         <v>80.28</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>280</v>
       </c>
@@ -7300,7 +7295,7 @@
         <v>84.81</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>281</v>
       </c>
@@ -7329,7 +7324,7 @@
         <v>77.680000000000007</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>282</v>
       </c>
@@ -7358,7 +7353,7 @@
         <v>89.03</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>283</v>
       </c>
@@ -7416,7 +7411,7 @@
         <v>81.459999999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>285</v>
       </c>
@@ -7445,7 +7440,7 @@
         <v>80.709999999999994</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>286</v>
       </c>
@@ -7474,7 +7469,7 @@
         <v>84.89</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>287</v>
       </c>
@@ -7503,7 +7498,7 @@
         <v>85.66</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>288</v>
       </c>
@@ -7532,7 +7527,7 @@
         <v>89.69</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>289</v>
       </c>
@@ -7561,7 +7556,7 @@
         <v>84.54</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>290</v>
       </c>
@@ -7590,7 +7585,7 @@
         <v>86.26</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>291</v>
       </c>
@@ -7619,7 +7614,7 @@
         <v>86.76</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>292</v>
       </c>
@@ -7648,7 +7643,7 @@
         <v>89.18</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>293</v>
       </c>
@@ -7677,7 +7672,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>294</v>
       </c>
@@ -7706,7 +7701,7 @@
         <v>88.02</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>295</v>
       </c>
@@ -7735,7 +7730,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>296</v>
       </c>
@@ -7764,7 +7759,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>297</v>
       </c>
@@ -7793,7 +7788,7 @@
         <v>86.42</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>298</v>
       </c>
@@ -7822,7 +7817,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>299</v>
       </c>
@@ -7851,7 +7846,7 @@
         <v>85.36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>300</v>
       </c>
@@ -7880,7 +7875,7 @@
         <v>82.18</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>301</v>
       </c>
@@ -7909,7 +7904,7 @@
         <v>86.32</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>302</v>
       </c>
@@ -7938,7 +7933,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>303</v>
       </c>
@@ -7967,7 +7962,7 @@
         <v>89.41</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>304</v>
       </c>
@@ -7996,7 +7991,7 @@
         <v>84.12</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>305</v>
       </c>
@@ -8025,7 +8020,7 @@
         <v>86.75</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>306</v>
       </c>
@@ -8054,7 +8049,7 @@
         <v>86.67</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>307</v>
       </c>
@@ -8083,7 +8078,7 @@
         <v>81.45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>308</v>
       </c>
@@ -8112,7 +8107,7 @@
         <v>87.48</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>309</v>
       </c>
@@ -8141,7 +8136,7 @@
         <v>83.46</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>310</v>
       </c>
@@ -8170,7 +8165,7 @@
         <v>83.01</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>311</v>
       </c>
@@ -8199,7 +8194,7 @@
         <v>81.92</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>312</v>
       </c>
@@ -8228,7 +8223,7 @@
         <v>78.739999999999995</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>313</v>
       </c>
@@ -8257,7 +8252,7 @@
         <v>82.79</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>314</v>
       </c>
@@ -8286,7 +8281,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>315</v>
       </c>
@@ -8315,7 +8310,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>316</v>
       </c>
@@ -8344,7 +8339,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>317</v>
       </c>
@@ -8373,7 +8368,7 @@
         <v>81.540000000000006</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>318</v>
       </c>
@@ -8402,7 +8397,7 @@
         <v>82.53</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>319</v>
       </c>
@@ -8431,7 +8426,7 @@
         <v>84.42</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>320</v>
       </c>
@@ -8460,7 +8455,7 @@
         <v>88.03</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>321</v>
       </c>
@@ -8489,7 +8484,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>322</v>
       </c>
@@ -8518,7 +8513,7 @@
         <v>87.69</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>323</v>
       </c>
@@ -8547,7 +8542,7 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>324</v>
       </c>
@@ -8576,7 +8571,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>325</v>
       </c>
@@ -8605,7 +8600,7 @@
         <v>88.84</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>326</v>
       </c>
@@ -8634,7 +8629,7 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>327</v>
       </c>
@@ -8663,7 +8658,7 @@
         <v>89.35</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>328</v>
       </c>
@@ -8692,7 +8687,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>329</v>
       </c>
@@ -8721,7 +8716,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>330</v>
       </c>
@@ -8750,7 +8745,7 @@
         <v>89.03</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>331</v>
       </c>
@@ -8779,7 +8774,7 @@
         <v>87.16</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>332</v>
       </c>
@@ -8808,7 +8803,7 @@
         <v>80.73</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>333</v>
       </c>
@@ -8837,7 +8832,7 @@
         <v>80.040000000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>334</v>
       </c>
@@ -8866,7 +8861,7 @@
         <v>80.319999999999993</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>335</v>
       </c>
@@ -8895,7 +8890,7 @@
         <v>86.49</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>336</v>
       </c>
@@ -8924,7 +8919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>337</v>
       </c>
@@ -8953,7 +8948,7 @@
         <v>83.93</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>338</v>
       </c>
@@ -8982,7 +8977,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>339</v>
       </c>
@@ -9011,7 +9006,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>340</v>
       </c>
@@ -9040,7 +9035,7 @@
         <v>83.84</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>341</v>
       </c>
@@ -9069,7 +9064,7 @@
         <v>80.12</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>342</v>
       </c>
@@ -9098,7 +9093,7 @@
         <v>89.63</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>343</v>
       </c>
@@ -9127,7 +9122,7 @@
         <v>86.38</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>344</v>
       </c>
@@ -9156,7 +9151,7 @@
         <v>88.91</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>345</v>
       </c>
@@ -9185,7 +9180,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>346</v>
       </c>
@@ -9214,7 +9209,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>347</v>
       </c>
@@ -9243,7 +9238,7 @@
         <v>82.48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>348</v>
       </c>
@@ -9272,7 +9267,7 @@
         <v>87.39</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>349</v>
       </c>
@@ -9301,7 +9296,7 @@
         <v>85.89</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>350</v>
       </c>
@@ -9330,7 +9325,7 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>351</v>
       </c>
@@ -9359,7 +9354,7 @@
         <v>82.06</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>352</v>
       </c>
@@ -9388,7 +9383,7 @@
         <v>85.41</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>353</v>
       </c>
@@ -9417,7 +9412,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>354</v>
       </c>
@@ -9446,7 +9441,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>355</v>
       </c>
@@ -9475,7 +9470,7 @@
         <v>84.48</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>356</v>
       </c>
@@ -9504,7 +9499,7 @@
         <v>88.76</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>357</v>
       </c>
@@ -9533,7 +9528,7 @@
         <v>86.82</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>358</v>
       </c>
@@ -9562,7 +9557,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>359</v>
       </c>
@@ -9591,7 +9586,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>360</v>
       </c>
@@ -9620,7 +9615,7 @@
         <v>83.97</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>361</v>
       </c>
@@ -9649,7 +9644,7 @@
         <v>89.82</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>362</v>
       </c>
@@ -9678,7 +9673,7 @@
         <v>83.22</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>363</v>
       </c>
@@ -9707,7 +9702,7 @@
         <v>85.18</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>364</v>
       </c>
@@ -9736,7 +9731,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>365</v>
       </c>
@@ -9765,7 +9760,7 @@
         <v>84.87</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>366</v>
       </c>
@@ -9794,7 +9789,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>367</v>
       </c>
@@ -9823,7 +9818,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>368</v>
       </c>
@@ -9852,7 +9847,7 @@
         <v>88.94</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>369</v>
       </c>
@@ -9881,7 +9876,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>370</v>
       </c>
@@ -9910,7 +9905,7 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>371</v>
       </c>
@@ -9939,7 +9934,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>372</v>
       </c>
@@ -9968,7 +9963,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>373</v>
       </c>
@@ -9997,7 +9992,7 @@
         <v>79.25</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>374</v>
       </c>
@@ -10026,7 +10021,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>375</v>
       </c>
@@ -10036,9 +10031,6 @@
       <c r="C332">
         <v>79.11</v>
       </c>
-      <c r="D332">
-        <v>92.2</v>
-      </c>
       <c r="E332">
         <v>85.21</v>
       </c>
@@ -10055,7 +10047,7 @@
         <v>84.86</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>376</v>
       </c>
@@ -10084,7 +10076,7 @@
         <v>83.06</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>377</v>
       </c>
@@ -10113,7 +10105,7 @@
         <v>88.55</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>378</v>
       </c>
@@ -10142,7 +10134,7 @@
         <v>84.82</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>379</v>
       </c>
@@ -10171,7 +10163,7 @@
         <v>84.19</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>380</v>
       </c>
@@ -10200,7 +10192,7 @@
         <v>83.69</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>381</v>
       </c>
@@ -10229,7 +10221,7 @@
         <v>88.27</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>382</v>
       </c>
@@ -10258,7 +10250,7 @@
         <v>86.95</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>383</v>
       </c>
@@ -10316,7 +10308,7 @@
         <v>86.44</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>385</v>
       </c>
@@ -10345,7 +10337,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>386</v>
       </c>
@@ -10374,7 +10366,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>387</v>
       </c>
@@ -10403,7 +10395,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>388</v>
       </c>
@@ -10432,7 +10424,7 @@
         <v>87.35</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>389</v>
       </c>
@@ -10461,7 +10453,7 @@
         <v>83.21</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>390</v>
       </c>
@@ -10490,7 +10482,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>391</v>
       </c>
@@ -10519,7 +10511,7 @@
         <v>89.24</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>392</v>
       </c>
@@ -10548,7 +10540,7 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>393</v>
       </c>
@@ -10577,7 +10569,7 @@
         <v>85.64</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>394</v>
       </c>
@@ -10606,7 +10598,7 @@
         <v>83.46</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>395</v>
       </c>
@@ -10635,7 +10627,7 @@
         <v>88.45</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>396</v>
       </c>
@@ -10664,7 +10656,7 @@
         <v>89.74</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>397</v>
       </c>
@@ -10693,7 +10685,7 @@
         <v>88.12</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>398</v>
       </c>
@@ -10722,7 +10714,7 @@
         <v>85.08</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>399</v>
       </c>
@@ -10751,7 +10743,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>400</v>
       </c>
@@ -10780,7 +10772,7 @@
         <v>85.74</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>401</v>
       </c>
@@ -10809,7 +10801,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>402</v>
       </c>
@@ -10838,7 +10830,7 @@
         <v>84.09</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>403</v>
       </c>
@@ -10867,7 +10859,7 @@
         <v>87.37</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>404</v>
       </c>
@@ -10896,7 +10888,7 @@
         <v>87.82</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>405</v>
       </c>
@@ -10925,7 +10917,7 @@
         <v>88.78</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>406</v>
       </c>
@@ -10954,7 +10946,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>407</v>
       </c>
@@ -10983,7 +10975,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>408</v>
       </c>
@@ -11012,7 +11004,7 @@
         <v>85.13</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>409</v>
       </c>
@@ -11041,7 +11033,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>410</v>
       </c>
@@ -11070,7 +11062,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>411</v>
       </c>
@@ -11099,7 +11091,7 @@
         <v>80.06</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>412</v>
       </c>
@@ -11128,7 +11120,7 @@
         <v>82.37</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>413</v>
       </c>
@@ -11157,7 +11149,7 @@
         <v>85.48</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>414</v>
       </c>
@@ -11186,7 +11178,7 @@
         <v>86.96</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>415</v>
       </c>
@@ -11215,7 +11207,7 @@
         <v>86.32</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>416</v>
       </c>
@@ -11244,7 +11236,7 @@
         <v>82.88</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>417</v>
       </c>
@@ -11273,7 +11265,7 @@
         <v>84.45</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>418</v>
       </c>
@@ -11302,7 +11294,7 @@
         <v>84.69</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>419</v>
       </c>
@@ -11331,7 +11323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>420</v>
       </c>
@@ -11360,7 +11352,7 @@
         <v>89.29</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>421</v>
       </c>
@@ -11389,7 +11381,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>422</v>
       </c>
@@ -11418,7 +11410,7 @@
         <v>84.38</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>423</v>
       </c>
@@ -11447,7 +11439,7 @@
         <v>81.36</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>424</v>
       </c>
@@ -11477,6 +11469,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J381">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="184"/>
+        <filter val="284"/>
+        <filter val="384"/>
+        <filter val="84"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
